--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.33300410081927</v>
+        <v>17.33300410081925</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.03142905789093</v>
+        <v>14.03142905789092</v>
       </c>
       <c r="E2">
-        <v>30.40659414636347</v>
+        <v>30.40659414636344</v>
       </c>
       <c r="F2">
-        <v>68.93364984014234</v>
+        <v>68.93364984014237</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.815634410999758</v>
+        <v>8.81563441099969</v>
       </c>
       <c r="I2">
-        <v>17.10228993232426</v>
+        <v>17.10228993232428</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>41.00258014009292</v>
+        <v>41.00258014009291</v>
       </c>
       <c r="L2">
-        <v>33.63985915540252</v>
+        <v>33.63985915540251</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.08880816325238</v>
+        <v>16.08880816325239</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.73781022579624</v>
+        <v>12.73781022579633</v>
       </c>
       <c r="E3">
-        <v>27.99229430749401</v>
+        <v>27.99229430749409</v>
       </c>
       <c r="F3">
-        <v>62.76362051217747</v>
+        <v>62.76362051217772</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9.998949510139864</v>
+        <v>9.998949510139726</v>
       </c>
       <c r="I3">
-        <v>15.93269363520485</v>
+        <v>15.93269363520483</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>37.60858954583124</v>
+        <v>37.60858954583134</v>
       </c>
       <c r="L3">
-        <v>30.97076327697605</v>
+        <v>30.97076327697613</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.2935752074244</v>
+        <v>15.29357520742437</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.94853187697213</v>
+        <v>11.94853187697217</v>
       </c>
       <c r="E4">
-        <v>26.49726899209851</v>
+        <v>26.49726899209854</v>
       </c>
       <c r="F4">
-        <v>59.03329332759165</v>
+        <v>59.03329332759186</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.70584280954288</v>
+        <v>10.7058428095428</v>
       </c>
       <c r="I4">
-        <v>15.2100203842831</v>
+        <v>15.21002038428308</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.49823448315077</v>
+        <v>35.49823448315087</v>
       </c>
       <c r="L4">
-        <v>29.30014843190792</v>
+        <v>29.30014843190798</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.96103329749487</v>
+        <v>14.96103329749488</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.62610501652824</v>
+        <v>11.62610501652819</v>
       </c>
       <c r="E5">
-        <v>25.88174398749543</v>
+        <v>25.88174398749534</v>
       </c>
       <c r="F5">
-        <v>57.5189532551711</v>
+        <v>57.51895325517113</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.99091034698431</v>
+        <v>10.99091034698428</v>
       </c>
       <c r="I5">
-        <v>14.91306132037863</v>
+        <v>14.91306132037858</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.62764065644988</v>
+        <v>34.62764065644989</v>
       </c>
       <c r="L5">
         <v>28.60865337400863</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.90528798134973</v>
+        <v>14.90528798134969</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>11.57246967656835</v>
       </c>
       <c r="E6">
-        <v>25.77908300629648</v>
+        <v>25.7790830062966</v>
       </c>
       <c r="F6">
-        <v>57.26764564781661</v>
+        <v>57.2676456478168</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.0381114928824</v>
+        <v>11.03811149288246</v>
       </c>
       <c r="I6">
-        <v>14.86357247725814</v>
+        <v>14.86357247725823</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.48234346471666</v>
+        <v>34.48234346471677</v>
       </c>
       <c r="L6">
-        <v>28.49311916619194</v>
+        <v>28.493119166192</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.28912545080686</v>
+        <v>15.2891254508069</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.94418898918366</v>
+        <v>11.94418898918362</v>
       </c>
       <c r="E7">
         <v>26.48899670662914</v>
       </c>
       <c r="F7">
-        <v>59.01285643170839</v>
+        <v>59.01285643170846</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10.7096972846807</v>
+        <v>10.7096972846806</v>
       </c>
       <c r="I7">
-        <v>15.20602688332801</v>
+        <v>15.20602688332805</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.48654072090827</v>
+        <v>35.48654072090834</v>
       </c>
       <c r="L7">
-        <v>29.29086907438854</v>
+        <v>29.29086907438861</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.91007591594267</v>
+        <v>16.91007591594261</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.58289769419911</v>
+        <v>13.58289769419899</v>
       </c>
       <c r="E8">
-        <v>29.57454652758876</v>
+        <v>29.57454652758863</v>
       </c>
       <c r="F8">
-        <v>66.78779264930952</v>
+        <v>66.78779264930932</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.229095072582668</v>
+        <v>9.22909507258297</v>
       </c>
       <c r="I8">
-        <v>16.69899118068859</v>
+        <v>16.69899118068852</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>39.83502281971767</v>
+        <v>39.83502281971766</v>
       </c>
       <c r="L8">
-        <v>32.7242380123333</v>
+        <v>32.72423801233327</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.88224497154125</v>
+        <v>19.88224497154121</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.98397021720508</v>
+        <v>16.98397021720516</v>
       </c>
       <c r="E9">
-        <v>35.7532569366475</v>
+        <v>35.75325693664757</v>
       </c>
       <c r="F9">
-        <v>83.1578343661522</v>
+        <v>83.1578343661525</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.03167254498193</v>
+        <v>6.031672544981892</v>
       </c>
       <c r="I9">
-        <v>19.69235813667471</v>
+        <v>19.69235813667475</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>48.43510055966475</v>
+        <v>48.43510055966485</v>
       </c>
       <c r="L9">
-        <v>39.39772822472396</v>
+        <v>39.39772822472402</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05628102746612</v>
+        <v>22.05628102746617</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.03417144102148</v>
+        <v>20.0341714410214</v>
       </c>
       <c r="E10">
-        <v>41.05731352604524</v>
+        <v>41.05731352604526</v>
       </c>
       <c r="F10">
         <v>97.85970693599747</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.359555003868792</v>
+        <v>3.359555003868755</v>
       </c>
       <c r="I10">
-        <v>22.24718616324223</v>
+        <v>22.24718616324229</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>55.62055121964502</v>
+        <v>55.62055121964501</v>
       </c>
       <c r="L10">
-        <v>44.82446118598538</v>
+        <v>44.82446118598539</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.13147443165087</v>
+        <v>23.13147443165083</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21.8927491238796</v>
+        <v>21.89274912387956</v>
       </c>
       <c r="E11">
-        <v>44.19724570312111</v>
+        <v>44.19724570312106</v>
       </c>
       <c r="F11">
-        <v>106.7223282923586</v>
+        <v>106.7223282923584</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5.069657892573918</v>
+        <v>5.069657892573921</v>
       </c>
       <c r="I11">
-        <v>23.74917178611063</v>
+        <v>23.74917178611062</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>59.72765534788025</v>
+        <v>59.7276553478802</v>
       </c>
       <c r="L11">
-        <v>47.84864703393615</v>
+        <v>47.84864703393608</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.58491923047605</v>
+        <v>23.58491923047596</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.80341108947608</v>
+        <v>22.80341108947585</v>
       </c>
       <c r="E12">
-        <v>45.71523342258909</v>
+        <v>45.71523342258867</v>
       </c>
       <c r="F12">
-        <v>111.0163700099737</v>
+        <v>111.0163700099725</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.89727913523418</v>
+        <v>5.897279135234011</v>
       </c>
       <c r="I12">
-        <v>24.47249775122967</v>
+        <v>24.4724977512294</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>61.65796031522357</v>
+        <v>61.65796031522311</v>
       </c>
       <c r="L12">
-        <v>49.2466352904014</v>
+        <v>49.24663529040109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.48341096216961</v>
+        <v>23.48341096216964</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.59064234128651</v>
+        <v>22.59064234128681</v>
       </c>
       <c r="E13">
-        <v>45.361626223481</v>
+        <v>45.36162622348149</v>
       </c>
       <c r="F13">
-        <v>110.0165902966392</v>
+        <v>110.0165902966406</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.704866392518444</v>
+        <v>5.704866392518577</v>
       </c>
       <c r="I13">
-        <v>24.30415506138569</v>
+        <v>24.30415506138597</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>61.21201786719188</v>
+        <v>61.21201786719244</v>
       </c>
       <c r="L13">
-        <v>48.92511060592717</v>
+        <v>48.92511060592754</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.16731035012524</v>
+        <v>23.16731035012532</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>21.9612790658513</v>
+        <v>21.96127906585123</v>
       </c>
       <c r="E14">
-        <v>44.31190494678241</v>
+        <v>44.31190494678223</v>
       </c>
       <c r="F14">
-        <v>107.0467593236779</v>
+        <v>107.0467593236775</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5.132279438725964</v>
+        <v>5.132279438725929</v>
       </c>
       <c r="I14">
-        <v>23.80386820905459</v>
+        <v>23.80386820905445</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>59.87485904401909</v>
+        <v>59.87485904401893</v>
       </c>
       <c r="L14">
-        <v>47.95581626774572</v>
+        <v>47.95581626774567</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.98210048660815</v>
+        <v>22.98210048660822</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.61257536325863</v>
+        <v>21.61257536325869</v>
       </c>
       <c r="E15">
-        <v>43.72771108126169</v>
+        <v>43.72771108126175</v>
       </c>
       <c r="F15">
-        <v>105.3939554344877</v>
+        <v>105.3939554344881</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.813163114993404</v>
+        <v>4.813163114993638</v>
       </c>
       <c r="I15">
         <v>23.52507968850849</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>59.12261879047708</v>
+        <v>59.12261879047719</v>
       </c>
       <c r="L15">
-        <v>47.40722680365869</v>
+        <v>47.4072268036588</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.98931317007605</v>
+        <v>21.98931317007598</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.92853454694987</v>
+        <v>19.92853454694979</v>
       </c>
       <c r="E16">
-        <v>40.87694165548589</v>
+        <v>40.8769416554858</v>
       </c>
       <c r="F16">
-        <v>97.35293141003373</v>
+        <v>97.35293141003349</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.262172637897094</v>
+        <v>3.262172637896933</v>
       </c>
       <c r="I16">
-        <v>22.16065893906117</v>
+        <v>22.16065893906116</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>55.38067978499773</v>
+        <v>55.38067978499769</v>
       </c>
       <c r="L16">
-        <v>44.64592871395691</v>
+        <v>44.64592871395684</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.41193833276291</v>
+        <v>21.41193833276295</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.05472129645815</v>
+        <v>19.05472129645828</v>
       </c>
       <c r="E17">
-        <v>39.37627609237314</v>
+        <v>39.37627609237354</v>
       </c>
       <c r="F17">
-        <v>93.15194468298236</v>
+        <v>93.15194468298311</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.04533686367417</v>
+        <v>4.045336863673998</v>
       </c>
       <c r="I17">
-        <v>21.43974228999905</v>
+        <v>21.43974228999928</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>53.37109410032356</v>
+        <v>53.37109410032386</v>
       </c>
       <c r="L17">
-        <v>43.14264559851802</v>
+        <v>43.14264559851821</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.08547641608106</v>
+        <v>21.08547641608109</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.58628374935157</v>
+        <v>18.58628374935141</v>
       </c>
       <c r="E18">
-        <v>38.56516909012998</v>
+        <v>38.56516909012969</v>
       </c>
       <c r="F18">
-        <v>90.89450763387885</v>
+        <v>90.89450763387809</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.495194478451796</v>
+        <v>4.49519447845188</v>
       </c>
       <c r="I18">
-        <v>21.04934956395795</v>
+        <v>21.0493495639578</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>52.27550051882233</v>
+        <v>52.27550051882205</v>
       </c>
       <c r="L18">
-        <v>42.31761750251983</v>
+        <v>42.31761750251968</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.43224736366486</v>
+        <v>18.43224736366499</v>
       </c>
       <c r="E19">
-        <v>38.29740324002834</v>
+        <v>38.29740324002835</v>
       </c>
       <c r="F19">
-        <v>90.15157409839961</v>
+        <v>90.15157409839986</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.643136648796794</v>
+        <v>4.643136648796628</v>
       </c>
       <c r="I19">
-        <v>20.92036262418803</v>
+        <v>20.920362624188</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>51.9125037558491</v>
+        <v>51.91250375584925</v>
       </c>
       <c r="L19">
-        <v>42.04345254951643</v>
+        <v>42.04345254951654</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.47273201034471</v>
+        <v>21.47273201034477</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.14385853919682</v>
+        <v>19.1438585391967</v>
       </c>
       <c r="E20">
-        <v>39.53008406997397</v>
+        <v>39.53008406997379</v>
       </c>
       <c r="F20">
-        <v>93.58113449522293</v>
+        <v>93.5811344952228</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.959764361282469</v>
+        <v>3.959764361282375</v>
       </c>
       <c r="I20">
-        <v>21.51371407181529</v>
+        <v>21.51371407181519</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>53.57814070847429</v>
+        <v>53.57814070847425</v>
       </c>
       <c r="L20">
-        <v>43.29813739877639</v>
+        <v>43.29813739877638</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.25815460689128</v>
+        <v>23.25815460689122</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.13743266831028</v>
+        <v>22.13743266831048</v>
       </c>
       <c r="E21">
-        <v>44.60630206691034</v>
+        <v>44.6063020669105</v>
       </c>
       <c r="F21">
-        <v>107.8797817283314</v>
+        <v>107.8797817283317</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5.293015530058029</v>
+        <v>5.293015530058096</v>
       </c>
       <c r="I21">
-        <v>23.944259154176</v>
+        <v>23.94425915417608</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>60.25180749660537</v>
+        <v>60.25180749660554</v>
       </c>
       <c r="L21">
-        <v>48.22983527501599</v>
+        <v>48.22983527501607</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.25815460689128</v>
+        <v>23.25815460689122</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.13743266831028</v>
+        <v>22.13743266831048</v>
       </c>
       <c r="E22">
-        <v>44.60630206691034</v>
+        <v>44.6063020669105</v>
       </c>
       <c r="F22">
-        <v>107.8797817283314</v>
+        <v>107.8797817283317</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.293015530058029</v>
+        <v>5.293015530058096</v>
       </c>
       <c r="I22">
-        <v>23.944259154176</v>
+        <v>23.94425915417608</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>60.25180749660537</v>
+        <v>60.25180749660554</v>
       </c>
       <c r="L22">
-        <v>48.22983527501599</v>
+        <v>48.22983527501607</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.90903604856742</v>
+        <v>23.90903604856745</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23.52576831462256</v>
+        <v>23.52576831462279</v>
       </c>
       <c r="E23">
-        <v>46.91139880007908</v>
+        <v>46.91139880007961</v>
       </c>
       <c r="F23">
-        <v>114.3927711318392</v>
+        <v>114.392771131841</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.54530480130104</v>
+        <v>6.545304801301348</v>
       </c>
       <c r="I23">
-        <v>25.04132518811964</v>
+        <v>25.04132518811989</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>63.14820390151333</v>
+        <v>63.14820390151399</v>
       </c>
       <c r="L23">
-        <v>50.31446471516477</v>
+        <v>50.31446471516519</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.44523133241152</v>
+        <v>21.44523133241148</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.10345879079677</v>
+        <v>19.10345879079685</v>
       </c>
       <c r="E24">
-        <v>39.46039444929499</v>
+        <v>39.46039444929526</v>
       </c>
       <c r="F24">
-        <v>93.3866284606037</v>
+        <v>93.38662846060456</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.998546684229338</v>
+        <v>3.998546684229412</v>
       </c>
       <c r="I24">
-        <v>21.48020012817988</v>
+        <v>21.48020012818007</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>53.48435783905079</v>
+        <v>53.48435783905109</v>
       </c>
       <c r="L24">
-        <v>43.22772347343724</v>
+        <v>43.22772347343746</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.09264490876621</v>
+        <v>19.0926449087662</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.01605596500681</v>
+        <v>16.01605596500682</v>
       </c>
       <c r="E25">
-        <v>34.02491044725089</v>
+        <v>34.0249104472509</v>
       </c>
       <c r="F25">
-        <v>78.48325799554223</v>
+        <v>78.48325799554222</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.95377912609534</v>
+        <v>6.95377912609524</v>
       </c>
       <c r="I25">
-        <v>18.85601927021895</v>
+        <v>18.85601927021892</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>46.04803462791682</v>
       </c>
       <c r="L25">
-        <v>37.56277858979989</v>
+        <v>37.56277858979987</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.33300410081925</v>
+        <v>17.33300410081927</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.03142905789092</v>
+        <v>14.03142905789093</v>
       </c>
       <c r="E2">
-        <v>30.40659414636344</v>
+        <v>30.40659414636347</v>
       </c>
       <c r="F2">
-        <v>68.93364984014237</v>
+        <v>68.93364984014234</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.81563441099969</v>
+        <v>8.815634410999758</v>
       </c>
       <c r="I2">
-        <v>17.10228993232428</v>
+        <v>17.10228993232426</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>41.00258014009291</v>
+        <v>41.00258014009292</v>
       </c>
       <c r="L2">
-        <v>33.63985915540251</v>
+        <v>33.63985915540252</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.08880816325239</v>
+        <v>16.08880816325238</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.73781022579633</v>
+        <v>12.73781022579624</v>
       </c>
       <c r="E3">
-        <v>27.99229430749409</v>
+        <v>27.99229430749401</v>
       </c>
       <c r="F3">
-        <v>62.76362051217772</v>
+        <v>62.76362051217747</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9.998949510139726</v>
+        <v>9.998949510139864</v>
       </c>
       <c r="I3">
-        <v>15.93269363520483</v>
+        <v>15.93269363520485</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>37.60858954583134</v>
+        <v>37.60858954583124</v>
       </c>
       <c r="L3">
-        <v>30.97076327697613</v>
+        <v>30.97076327697605</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.29357520742437</v>
+        <v>15.2935752074244</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.94853187697217</v>
+        <v>11.94853187697213</v>
       </c>
       <c r="E4">
-        <v>26.49726899209854</v>
+        <v>26.49726899209851</v>
       </c>
       <c r="F4">
-        <v>59.03329332759186</v>
+        <v>59.03329332759165</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.7058428095428</v>
+        <v>10.70584280954288</v>
       </c>
       <c r="I4">
-        <v>15.21002038428308</v>
+        <v>15.2100203842831</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.49823448315087</v>
+        <v>35.49823448315077</v>
       </c>
       <c r="L4">
-        <v>29.30014843190798</v>
+        <v>29.30014843190792</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.96103329749488</v>
+        <v>14.96103329749487</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.62610501652819</v>
+        <v>11.62610501652824</v>
       </c>
       <c r="E5">
-        <v>25.88174398749534</v>
+        <v>25.88174398749543</v>
       </c>
       <c r="F5">
-        <v>57.51895325517113</v>
+        <v>57.5189532551711</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.99091034698428</v>
+        <v>10.99091034698431</v>
       </c>
       <c r="I5">
-        <v>14.91306132037858</v>
+        <v>14.91306132037863</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.62764065644989</v>
+        <v>34.62764065644988</v>
       </c>
       <c r="L5">
         <v>28.60865337400863</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.90528798134969</v>
+        <v>14.90528798134973</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>11.57246967656835</v>
       </c>
       <c r="E6">
-        <v>25.7790830062966</v>
+        <v>25.77908300629648</v>
       </c>
       <c r="F6">
-        <v>57.2676456478168</v>
+        <v>57.26764564781661</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.03811149288246</v>
+        <v>11.0381114928824</v>
       </c>
       <c r="I6">
-        <v>14.86357247725823</v>
+        <v>14.86357247725814</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.48234346471677</v>
+        <v>34.48234346471666</v>
       </c>
       <c r="L6">
-        <v>28.493119166192</v>
+        <v>28.49311916619194</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.2891254508069</v>
+        <v>15.28912545080686</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.94418898918362</v>
+        <v>11.94418898918366</v>
       </c>
       <c r="E7">
         <v>26.48899670662914</v>
       </c>
       <c r="F7">
-        <v>59.01285643170846</v>
+        <v>59.01285643170839</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10.7096972846806</v>
+        <v>10.7096972846807</v>
       </c>
       <c r="I7">
-        <v>15.20602688332805</v>
+        <v>15.20602688332801</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.48654072090834</v>
+        <v>35.48654072090827</v>
       </c>
       <c r="L7">
-        <v>29.29086907438861</v>
+        <v>29.29086907438854</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.91007591594261</v>
+        <v>16.91007591594267</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.58289769419899</v>
+        <v>13.58289769419911</v>
       </c>
       <c r="E8">
-        <v>29.57454652758863</v>
+        <v>29.57454652758876</v>
       </c>
       <c r="F8">
-        <v>66.78779264930932</v>
+        <v>66.78779264930952</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.22909507258297</v>
+        <v>9.229095072582668</v>
       </c>
       <c r="I8">
-        <v>16.69899118068852</v>
+        <v>16.69899118068859</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>39.83502281971766</v>
+        <v>39.83502281971767</v>
       </c>
       <c r="L8">
-        <v>32.72423801233327</v>
+        <v>32.7242380123333</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.88224497154121</v>
+        <v>19.88224497154125</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.98397021720516</v>
+        <v>16.98397021720508</v>
       </c>
       <c r="E9">
-        <v>35.75325693664757</v>
+        <v>35.7532569366475</v>
       </c>
       <c r="F9">
-        <v>83.1578343661525</v>
+        <v>83.1578343661522</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.031672544981892</v>
+        <v>6.03167254498193</v>
       </c>
       <c r="I9">
-        <v>19.69235813667475</v>
+        <v>19.69235813667471</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>48.43510055966485</v>
+        <v>48.43510055966475</v>
       </c>
       <c r="L9">
-        <v>39.39772822472402</v>
+        <v>39.39772822472396</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05628102746617</v>
+        <v>22.05628102746612</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.0341714410214</v>
+        <v>20.03417144102148</v>
       </c>
       <c r="E10">
-        <v>41.05731352604526</v>
+        <v>41.05731352604524</v>
       </c>
       <c r="F10">
         <v>97.85970693599747</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.359555003868755</v>
+        <v>3.359555003868792</v>
       </c>
       <c r="I10">
-        <v>22.24718616324229</v>
+        <v>22.24718616324223</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>55.62055121964501</v>
+        <v>55.62055121964502</v>
       </c>
       <c r="L10">
-        <v>44.82446118598539</v>
+        <v>44.82446118598538</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.13147443165083</v>
+        <v>23.13147443165087</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21.89274912387956</v>
+        <v>21.8927491238796</v>
       </c>
       <c r="E11">
-        <v>44.19724570312106</v>
+        <v>44.19724570312111</v>
       </c>
       <c r="F11">
-        <v>106.7223282923584</v>
+        <v>106.7223282923586</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5.069657892573921</v>
+        <v>5.069657892573918</v>
       </c>
       <c r="I11">
-        <v>23.74917178611062</v>
+        <v>23.74917178611063</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>59.7276553478802</v>
+        <v>59.72765534788025</v>
       </c>
       <c r="L11">
-        <v>47.84864703393608</v>
+        <v>47.84864703393615</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.58491923047596</v>
+        <v>23.58491923047605</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.80341108947585</v>
+        <v>22.80341108947608</v>
       </c>
       <c r="E12">
-        <v>45.71523342258867</v>
+        <v>45.71523342258909</v>
       </c>
       <c r="F12">
-        <v>111.0163700099725</v>
+        <v>111.0163700099737</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.897279135234011</v>
+        <v>5.89727913523418</v>
       </c>
       <c r="I12">
-        <v>24.4724977512294</v>
+        <v>24.47249775122967</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>61.65796031522311</v>
+        <v>61.65796031522357</v>
       </c>
       <c r="L12">
-        <v>49.24663529040109</v>
+        <v>49.2466352904014</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.48341096216964</v>
+        <v>23.48341096216961</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.59064234128681</v>
+        <v>22.59064234128651</v>
       </c>
       <c r="E13">
-        <v>45.36162622348149</v>
+        <v>45.361626223481</v>
       </c>
       <c r="F13">
-        <v>110.0165902966406</v>
+        <v>110.0165902966392</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.704866392518577</v>
+        <v>5.704866392518444</v>
       </c>
       <c r="I13">
-        <v>24.30415506138597</v>
+        <v>24.30415506138569</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>61.21201786719244</v>
+        <v>61.21201786719188</v>
       </c>
       <c r="L13">
-        <v>48.92511060592754</v>
+        <v>48.92511060592717</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.16731035012532</v>
+        <v>23.16731035012524</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>21.96127906585123</v>
+        <v>21.9612790658513</v>
       </c>
       <c r="E14">
-        <v>44.31190494678223</v>
+        <v>44.31190494678241</v>
       </c>
       <c r="F14">
-        <v>107.0467593236775</v>
+        <v>107.0467593236779</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5.132279438725929</v>
+        <v>5.132279438725964</v>
       </c>
       <c r="I14">
-        <v>23.80386820905445</v>
+        <v>23.80386820905459</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>59.87485904401893</v>
+        <v>59.87485904401909</v>
       </c>
       <c r="L14">
-        <v>47.95581626774567</v>
+        <v>47.95581626774572</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.98210048660822</v>
+        <v>22.98210048660815</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.61257536325869</v>
+        <v>21.61257536325863</v>
       </c>
       <c r="E15">
-        <v>43.72771108126175</v>
+        <v>43.72771108126169</v>
       </c>
       <c r="F15">
-        <v>105.3939554344881</v>
+        <v>105.3939554344877</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.813163114993638</v>
+        <v>4.813163114993404</v>
       </c>
       <c r="I15">
         <v>23.52507968850849</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>59.12261879047719</v>
+        <v>59.12261879047708</v>
       </c>
       <c r="L15">
-        <v>47.4072268036588</v>
+        <v>47.40722680365869</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.98931317007598</v>
+        <v>21.98931317007605</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.92853454694979</v>
+        <v>19.92853454694987</v>
       </c>
       <c r="E16">
-        <v>40.8769416554858</v>
+        <v>40.87694165548589</v>
       </c>
       <c r="F16">
-        <v>97.35293141003349</v>
+        <v>97.35293141003373</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.262172637896933</v>
+        <v>3.262172637897094</v>
       </c>
       <c r="I16">
-        <v>22.16065893906116</v>
+        <v>22.16065893906117</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>55.38067978499769</v>
+        <v>55.38067978499773</v>
       </c>
       <c r="L16">
-        <v>44.64592871395684</v>
+        <v>44.64592871395691</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.41193833276295</v>
+        <v>21.41193833276291</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.05472129645828</v>
+        <v>19.05472129645815</v>
       </c>
       <c r="E17">
-        <v>39.37627609237354</v>
+        <v>39.37627609237314</v>
       </c>
       <c r="F17">
-        <v>93.15194468298311</v>
+        <v>93.15194468298236</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.045336863673998</v>
+        <v>4.04533686367417</v>
       </c>
       <c r="I17">
-        <v>21.43974228999928</v>
+        <v>21.43974228999905</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>53.37109410032386</v>
+        <v>53.37109410032356</v>
       </c>
       <c r="L17">
-        <v>43.14264559851821</v>
+        <v>43.14264559851802</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.08547641608109</v>
+        <v>21.08547641608106</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.58628374935141</v>
+        <v>18.58628374935157</v>
       </c>
       <c r="E18">
-        <v>38.56516909012969</v>
+        <v>38.56516909012998</v>
       </c>
       <c r="F18">
-        <v>90.89450763387809</v>
+        <v>90.89450763387885</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.49519447845188</v>
+        <v>4.495194478451796</v>
       </c>
       <c r="I18">
-        <v>21.0493495639578</v>
+        <v>21.04934956395795</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>52.27550051882205</v>
+        <v>52.27550051882233</v>
       </c>
       <c r="L18">
-        <v>42.31761750251968</v>
+        <v>42.31761750251983</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.43224736366499</v>
+        <v>18.43224736366486</v>
       </c>
       <c r="E19">
-        <v>38.29740324002835</v>
+        <v>38.29740324002834</v>
       </c>
       <c r="F19">
-        <v>90.15157409839986</v>
+        <v>90.15157409839961</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.643136648796628</v>
+        <v>4.643136648796794</v>
       </c>
       <c r="I19">
-        <v>20.920362624188</v>
+        <v>20.92036262418803</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>51.91250375584925</v>
+        <v>51.9125037558491</v>
       </c>
       <c r="L19">
-        <v>42.04345254951654</v>
+        <v>42.04345254951643</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.47273201034477</v>
+        <v>21.47273201034471</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.1438585391967</v>
+        <v>19.14385853919682</v>
       </c>
       <c r="E20">
-        <v>39.53008406997379</v>
+        <v>39.53008406997397</v>
       </c>
       <c r="F20">
-        <v>93.5811344952228</v>
+        <v>93.58113449522293</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.959764361282375</v>
+        <v>3.959764361282469</v>
       </c>
       <c r="I20">
-        <v>21.51371407181519</v>
+        <v>21.51371407181529</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>53.57814070847425</v>
+        <v>53.57814070847429</v>
       </c>
       <c r="L20">
-        <v>43.29813739877638</v>
+        <v>43.29813739877639</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.25815460689122</v>
+        <v>23.25815460689128</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.13743266831048</v>
+        <v>22.13743266831028</v>
       </c>
       <c r="E21">
-        <v>44.6063020669105</v>
+        <v>44.60630206691034</v>
       </c>
       <c r="F21">
-        <v>107.8797817283317</v>
+        <v>107.8797817283314</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5.293015530058096</v>
+        <v>5.293015530058029</v>
       </c>
       <c r="I21">
-        <v>23.94425915417608</v>
+        <v>23.944259154176</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>60.25180749660554</v>
+        <v>60.25180749660537</v>
       </c>
       <c r="L21">
-        <v>48.22983527501607</v>
+        <v>48.22983527501599</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.25815460689122</v>
+        <v>23.25815460689128</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.13743266831048</v>
+        <v>22.13743266831028</v>
       </c>
       <c r="E22">
-        <v>44.6063020669105</v>
+        <v>44.60630206691034</v>
       </c>
       <c r="F22">
-        <v>107.8797817283317</v>
+        <v>107.8797817283314</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.293015530058096</v>
+        <v>5.293015530058029</v>
       </c>
       <c r="I22">
-        <v>23.94425915417608</v>
+        <v>23.944259154176</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>60.25180749660554</v>
+        <v>60.25180749660537</v>
       </c>
       <c r="L22">
-        <v>48.22983527501607</v>
+        <v>48.22983527501599</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.90903604856745</v>
+        <v>23.90903604856742</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23.52576831462279</v>
+        <v>23.52576831462256</v>
       </c>
       <c r="E23">
-        <v>46.91139880007961</v>
+        <v>46.91139880007908</v>
       </c>
       <c r="F23">
-        <v>114.392771131841</v>
+        <v>114.3927711318392</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.545304801301348</v>
+        <v>6.54530480130104</v>
       </c>
       <c r="I23">
-        <v>25.04132518811989</v>
+        <v>25.04132518811964</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>63.14820390151399</v>
+        <v>63.14820390151333</v>
       </c>
       <c r="L23">
-        <v>50.31446471516519</v>
+        <v>50.31446471516477</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.44523133241148</v>
+        <v>21.44523133241152</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.10345879079685</v>
+        <v>19.10345879079677</v>
       </c>
       <c r="E24">
-        <v>39.46039444929526</v>
+        <v>39.46039444929499</v>
       </c>
       <c r="F24">
-        <v>93.38662846060456</v>
+        <v>93.3866284606037</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.998546684229412</v>
+        <v>3.998546684229338</v>
       </c>
       <c r="I24">
-        <v>21.48020012818007</v>
+        <v>21.48020012817988</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>53.48435783905109</v>
+        <v>53.48435783905079</v>
       </c>
       <c r="L24">
-        <v>43.22772347343746</v>
+        <v>43.22772347343724</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.0926449087662</v>
+        <v>19.09264490876621</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.01605596500682</v>
+        <v>16.01605596500681</v>
       </c>
       <c r="E25">
-        <v>34.0249104472509</v>
+        <v>34.02491044725089</v>
       </c>
       <c r="F25">
-        <v>78.48325799554222</v>
+        <v>78.48325799554223</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.95377912609524</v>
+        <v>6.95377912609534</v>
       </c>
       <c r="I25">
-        <v>18.85601927021892</v>
+        <v>18.85601927021895</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>46.04803462791682</v>
       </c>
       <c r="L25">
-        <v>37.56277858979987</v>
+        <v>37.56277858979989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.33300410081927</v>
+        <v>17.28802628078996</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.03142905789093</v>
+        <v>13.84107725154421</v>
       </c>
       <c r="E2">
-        <v>30.40659414636347</v>
+        <v>30.0689743386491</v>
       </c>
       <c r="F2">
-        <v>68.93364984014234</v>
+        <v>68.42090984227085</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.879792381363397</v>
       </c>
       <c r="H2">
-        <v>8.815634410999758</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.10228993232426</v>
+        <v>9.029175735430755</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>16.91848848210407</v>
       </c>
       <c r="K2">
-        <v>41.00258014009292</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>33.63985915540252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>40.72724109991818</v>
+      </c>
+      <c r="M2">
+        <v>33.43413153009342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.08880816325238</v>
+        <v>16.04701478594873</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.73781022579624</v>
+        <v>12.56620139302244</v>
       </c>
       <c r="E3">
-        <v>27.99229430749401</v>
+        <v>27.67244163707667</v>
       </c>
       <c r="F3">
-        <v>62.76362051217747</v>
+        <v>62.36751598239043</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.918379992197607</v>
       </c>
       <c r="H3">
-        <v>9.998949510139864</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.93269363520485</v>
+        <v>10.20511965965238</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>15.75336976073407</v>
       </c>
       <c r="K3">
-        <v>37.60858954583124</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.97076327697605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>37.36410761135195</v>
+      </c>
+      <c r="M3">
+        <v>30.78277504889736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.2935752074244</v>
+        <v>15.25348074320481</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.94853187697213</v>
+        <v>11.78792721908177</v>
       </c>
       <c r="E4">
-        <v>26.49726899209851</v>
+        <v>26.18608099891342</v>
       </c>
       <c r="F4">
-        <v>59.03329332759165</v>
+        <v>58.70974134860495</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.941245533908191</v>
       </c>
       <c r="H4">
-        <v>10.70584280954288</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.2100203842831</v>
+        <v>10.90838772189359</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.03214747988991</v>
       </c>
       <c r="K4">
-        <v>35.49823448315077</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>29.30014843190792</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>35.27129590919265</v>
+      </c>
+      <c r="M4">
+        <v>29.12178603306505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.96103329749487</v>
+        <v>14.92158603853501</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.62610501652824</v>
+        <v>11.46995367513746</v>
       </c>
       <c r="E5">
-        <v>25.88174398749543</v>
+        <v>25.57364734761674</v>
       </c>
       <c r="F5">
-        <v>57.5189532551711</v>
+        <v>57.22569483157677</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.950434650459639</v>
       </c>
       <c r="H5">
-        <v>10.99091034698431</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>14.91306132037863</v>
+        <v>11.19213622788965</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>14.73550973986564</v>
       </c>
       <c r="K5">
-        <v>34.62764065644988</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>28.60865337400863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>34.40766606846361</v>
+      </c>
+      <c r="M5">
+        <v>28.43400066370721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.90528798134973</v>
+        <v>14.86594587841292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.57246967656835</v>
+        <v>11.41705815451154</v>
       </c>
       <c r="E6">
-        <v>25.77908300629648</v>
+        <v>25.47147570266909</v>
       </c>
       <c r="F6">
-        <v>57.26764564781661</v>
+        <v>56.9794732169791</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.951954619745437</v>
       </c>
       <c r="H6">
-        <v>11.0381114928824</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>14.86357247725814</v>
+        <v>11.2391264221867</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.68605910839168</v>
       </c>
       <c r="K6">
-        <v>34.48234346471666</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>28.49311916619194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>34.26351785396841</v>
+      </c>
+      <c r="M6">
+        <v>28.31907188452087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.28912545080686</v>
+        <v>15.24903987816174</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.94418898918366</v>
+        <v>11.78364441218858</v>
       </c>
       <c r="E7">
-        <v>26.48899670662914</v>
+        <v>26.1778520620191</v>
       </c>
       <c r="F7">
-        <v>59.01285643170839</v>
+        <v>58.68970950743317</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.941369894530381</v>
       </c>
       <c r="H7">
-        <v>10.7096972846807</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.20602688332801</v>
+        <v>10.91222383729483</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.02815935021634</v>
       </c>
       <c r="K7">
-        <v>35.48654072090827</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>29.29086907438854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>35.25969663756292</v>
+      </c>
+      <c r="M7">
+        <v>29.11255745951092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.91007591594267</v>
+        <v>16.86626411567699</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.58289769419911</v>
+        <v>13.39918320067526</v>
       </c>
       <c r="E8">
-        <v>29.57454652758876</v>
+        <v>29.24361607124155</v>
       </c>
       <c r="F8">
-        <v>66.78779264930952</v>
+        <v>66.3154252567744</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.893325099946621</v>
       </c>
       <c r="H8">
-        <v>9.229095072582668</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.69899118068859</v>
+        <v>9.439856164730132</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.51704729550691</v>
       </c>
       <c r="K8">
-        <v>39.83502281971767</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>32.7242380123333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>39.57073903784263</v>
+      </c>
+      <c r="M8">
+        <v>32.52496968089003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.88224497154125</v>
+        <v>19.82730924244056</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.98397021720508</v>
+        <v>16.74280556401222</v>
       </c>
       <c r="E9">
-        <v>35.7532569366475</v>
+        <v>35.35375622337732</v>
       </c>
       <c r="F9">
-        <v>83.1578343661522</v>
+        <v>82.36164815585082</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.786897060821603</v>
       </c>
       <c r="H9">
-        <v>6.03167254498193</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.69235813667471</v>
+        <v>6.271904059857722</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>19.4866370131518</v>
       </c>
       <c r="K9">
-        <v>48.43510055966475</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>39.39772822472396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>48.07182048436259</v>
+      </c>
+      <c r="M9">
+        <v>39.13782357717825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05628102746612</v>
+        <v>21.98302864012005</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.03417144102148</v>
+        <v>19.70993087849696</v>
       </c>
       <c r="E10">
-        <v>41.05731352604524</v>
+        <v>40.53588234095047</v>
       </c>
       <c r="F10">
-        <v>97.85970693599747</v>
+        <v>96.65247746132577</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.685059011849733</v>
       </c>
       <c r="H10">
-        <v>3.359555003868792</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>22.24718616324223</v>
+        <v>3.403422236284501</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>21.98954510973593</v>
       </c>
       <c r="K10">
-        <v>55.62055121964502</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>44.82446118598538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>55.10790414357967</v>
+      </c>
+      <c r="M10">
+        <v>44.4670637535735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.13147443165087</v>
+        <v>23.03678085596642</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21.8927491238796</v>
+        <v>21.47566478215636</v>
       </c>
       <c r="E11">
-        <v>44.19724570312111</v>
+        <v>43.52988276970034</v>
       </c>
       <c r="F11">
-        <v>106.7223282923586</v>
+        <v>105.0831850973804</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.621447385090188</v>
       </c>
       <c r="H11">
-        <v>5.069657892573918</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>23.74917178611063</v>
+        <v>4.71242829383583</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>23.42526462304692</v>
       </c>
       <c r="K11">
-        <v>59.72765534788025</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>47.84864703393615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>59.04657005243264</v>
+      </c>
+      <c r="M11">
+        <v>47.37858963724182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.58491923047605</v>
+        <v>23.47297423376007</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.80341108947608</v>
+        <v>22.31261193070577</v>
       </c>
       <c r="E12">
-        <v>45.71523342258909</v>
+        <v>44.92974913656096</v>
       </c>
       <c r="F12">
-        <v>111.0163700099737</v>
+        <v>109.0419023977437</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.590581490803013</v>
       </c>
       <c r="H12">
-        <v>5.89727913523418</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>24.47249775122967</v>
+        <v>5.481817513844917</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>24.09387144111523</v>
       </c>
       <c r="K12">
-        <v>61.65796031522357</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>49.2466352904014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>60.84320315284239</v>
+      </c>
+      <c r="M12">
+        <v>48.68645842664608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.48341096216961</v>
+        <v>23.37611583136867</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.59064234128651</v>
+        <v>22.11966729106793</v>
       </c>
       <c r="E13">
-        <v>45.361626223481</v>
+        <v>44.6080129751901</v>
       </c>
       <c r="F13">
-        <v>110.0165902966392</v>
+        <v>108.1319081418166</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.597735775713573</v>
       </c>
       <c r="H13">
-        <v>5.704866392518444</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>24.30415506138569</v>
+        <v>5.305144968982291</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>23.94034703616902</v>
       </c>
       <c r="K13">
-        <v>61.21201786719188</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>48.92511060592717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>60.43319206230061</v>
+      </c>
+      <c r="M13">
+        <v>48.38919370496331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.16731035012524</v>
+        <v>23.07153040898188</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>21.9612790658513</v>
+        <v>21.53953660491776</v>
       </c>
       <c r="E14">
-        <v>44.31190494678241</v>
+        <v>43.63711540310354</v>
       </c>
       <c r="F14">
-        <v>107.0467593236779</v>
+        <v>105.3862893789021</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.619107422540818</v>
       </c>
       <c r="H14">
-        <v>5.132279438725964</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>23.80386820905459</v>
+        <v>4.771396039577369</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>23.47653970767077</v>
       </c>
       <c r="K14">
-        <v>59.87485904401909</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>47.95581626774572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>59.18532217471063</v>
+      </c>
+      <c r="M14">
+        <v>47.48007350747488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.98210048660815</v>
+        <v>22.89156643070361</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.61257536325863</v>
+        <v>21.21335442404488</v>
       </c>
       <c r="E15">
-        <v>43.72771108126169</v>
+        <v>43.08876324562394</v>
       </c>
       <c r="F15">
-        <v>105.3939554344877</v>
+        <v>103.8368242488818</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.631029528631551</v>
       </c>
       <c r="H15">
-        <v>4.813163114993404</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>23.52507968850849</v>
+        <v>4.469910261773979</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>23.21423125687476</v>
       </c>
       <c r="K15">
-        <v>59.12261879047708</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>47.40722680365869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>58.47394849067724</v>
+      </c>
+      <c r="M15">
+        <v>46.95895388957562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.98931317007605</v>
+        <v>21.91694752621698</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.92853454694987</v>
+        <v>19.60819353522067</v>
       </c>
       <c r="E16">
-        <v>40.87694165548589</v>
+        <v>40.36150336974548</v>
       </c>
       <c r="F16">
-        <v>97.35293141003373</v>
+        <v>96.16426042049187</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.688658597639451</v>
       </c>
       <c r="H16">
-        <v>3.262172637897094</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>22.16065893906117</v>
+        <v>3.501636352518366</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>21.90567951001463</v>
       </c>
       <c r="K16">
-        <v>55.38067978499773</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>44.64592871395691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>54.87509655624042</v>
+      </c>
+      <c r="M16">
+        <v>44.29321555987751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.41193833276291</v>
+        <v>21.34602948388553</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.05472129645815</v>
+        <v>18.76303839167407</v>
       </c>
       <c r="E17">
-        <v>39.37627609237314</v>
+        <v>38.90428519197474</v>
       </c>
       <c r="F17">
-        <v>93.15194468298236</v>
+        <v>92.10135409351604</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.718273005286136</v>
       </c>
       <c r="H17">
-        <v>4.04533686367417</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>21.43974228999905</v>
+        <v>4.318881147616649</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.20381352501407</v>
       </c>
       <c r="K17">
-        <v>53.37109410032356</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>43.14264559851802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>52.91733186978522</v>
+      </c>
+      <c r="M17">
+        <v>42.82412953286382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.08547641608106</v>
+        <v>21.02249619311444</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.58628374935157</v>
+        <v>18.30779951759654</v>
       </c>
       <c r="E18">
-        <v>38.56516909012998</v>
+        <v>38.11273878845937</v>
       </c>
       <c r="F18">
-        <v>90.89450763387885</v>
+        <v>89.90875127335697</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.73400740082716</v>
       </c>
       <c r="H18">
-        <v>4.495194478451796</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>21.04934956395795</v>
+        <v>4.75958296058364</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>20.82181684928607</v>
       </c>
       <c r="K18">
-        <v>52.27550051882233</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>42.31761750251983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>51.84552202255068</v>
+      </c>
+      <c r="M18">
+        <v>42.01467302066813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.97558471103027</v>
+        <v>20.91350067094702</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.43224736366486</v>
+        <v>18.15783475140672</v>
       </c>
       <c r="E19">
-        <v>38.29740324002834</v>
+        <v>37.85093442947849</v>
       </c>
       <c r="F19">
-        <v>90.15157409839961</v>
+        <v>89.18601356198825</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.739156697029512</v>
       </c>
       <c r="H19">
-        <v>4.643136648796794</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>20.92036262418803</v>
+        <v>4.904756175121245</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>20.69535997022462</v>
       </c>
       <c r="K19">
-        <v>51.9125037558491</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>42.04345254951643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>51.48984693936001</v>
+      </c>
+      <c r="M19">
+        <v>41.7452820789393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.47273201034471</v>
+        <v>21.4062280432776</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.14385853919682</v>
+        <v>18.849511246104</v>
       </c>
       <c r="E20">
-        <v>39.53008406997397</v>
+        <v>39.05410532755255</v>
       </c>
       <c r="F20">
-        <v>93.58113449522293</v>
+        <v>92.51756253397959</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.715266886314306</v>
       </c>
       <c r="H20">
-        <v>3.959764361282469</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>21.51371407181529</v>
+        <v>4.235187439532011</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>21.27605778234422</v>
       </c>
       <c r="K20">
-        <v>53.57814070847429</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>43.29813739877639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>53.11956952786306</v>
+      </c>
+      <c r="M20">
+        <v>42.97646215915729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.25815460689128</v>
+        <v>23.15944480111909</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.13743266831028</v>
+        <v>21.70314071290309</v>
       </c>
       <c r="E21">
-        <v>44.60630206691034</v>
+        <v>43.91147387133867</v>
       </c>
       <c r="F21">
-        <v>107.8797817283314</v>
+        <v>106.1619633932079</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.613101831792392</v>
       </c>
       <c r="H21">
-        <v>5.293015530058029</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>23.944259154176</v>
+        <v>4.922269675383235</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>23.60768397838576</v>
       </c>
       <c r="K21">
-        <v>60.25180749660537</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>48.22983527501599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>59.53950386322745</v>
+      </c>
+      <c r="M21">
+        <v>47.73876733904552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.25815460689128</v>
+        <v>24.79633975684209</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.13743266831028</v>
+        <v>25.69591540676433</v>
       </c>
       <c r="E22">
-        <v>44.60630206691034</v>
+        <v>50.49898549483525</v>
       </c>
       <c r="F22">
-        <v>107.8797817283314</v>
+        <v>124.6455620743446</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.461833527492078</v>
       </c>
       <c r="H22">
-        <v>5.293015530058029</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>23.944259154176</v>
+        <v>8.470897930187087</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>26.74047101775077</v>
       </c>
       <c r="K22">
-        <v>60.25180749660537</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>48.22983527501599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>67.59102783999879</v>
+      </c>
+      <c r="M22">
+        <v>53.46049713652729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.90903604856742</v>
+        <v>23.7772712035499</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23.52576831462256</v>
+        <v>22.95068688824496</v>
       </c>
       <c r="E23">
-        <v>46.91139880007908</v>
+        <v>45.98989383830427</v>
       </c>
       <c r="F23">
-        <v>114.3927711318392</v>
+        <v>112.0387047496019</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.566763337263178</v>
       </c>
       <c r="H23">
-        <v>6.54530480130104</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>25.04132518811964</v>
+        <v>6.062439426937954</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>24.59917001134627</v>
       </c>
       <c r="K23">
-        <v>63.14820390151333</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>50.31446471516477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>62.18082744495545</v>
+      </c>
+      <c r="M23">
+        <v>49.65105639984298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.44523133241152</v>
+        <v>21.37899869031294</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.10345879079677</v>
+        <v>18.8103255638236</v>
       </c>
       <c r="E24">
-        <v>39.46039444929499</v>
+        <v>38.98623432900805</v>
       </c>
       <c r="F24">
-        <v>93.3866284606037</v>
+        <v>92.32896750978487</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.716629809255317</v>
       </c>
       <c r="H24">
-        <v>3.998546684229338</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>21.48020012817988</v>
+        <v>4.273112473160455</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>21.24333227168071</v>
       </c>
       <c r="K24">
-        <v>53.48435783905079</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>43.22772347343724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>53.02797820919613</v>
+      </c>
+      <c r="M24">
+        <v>42.90748835604979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.09264490876621</v>
+        <v>19.04150473335341</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.01605596500681</v>
+        <v>15.79337369196879</v>
       </c>
       <c r="E25">
-        <v>34.02491044725089</v>
+        <v>33.649705813663</v>
       </c>
       <c r="F25">
-        <v>78.48325799554223</v>
+        <v>77.78581028321263</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.818047976852172</v>
       </c>
       <c r="H25">
-        <v>6.95377912609534</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.85601927021895</v>
+        <v>7.183306841064022</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>18.65959963459385</v>
       </c>
       <c r="K25">
-        <v>46.04803462791682</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>37.56277858979989</v>
+        <v>45.71727655342085</v>
+      </c>
+      <c r="M25">
+        <v>37.32336674853222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.28802628078996</v>
+        <v>17.21339913082429</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.84107725154421</v>
+        <v>3.221057133170863</v>
       </c>
       <c r="E2">
-        <v>30.0689743386491</v>
+        <v>17.89620245636319</v>
       </c>
       <c r="F2">
-        <v>68.42090984227085</v>
+        <v>36.20221926653915</v>
       </c>
       <c r="G2">
-        <v>1.879792381363397</v>
+        <v>2.024437343799277</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.029175735430755</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.91848848210407</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>30.31312660837198</v>
       </c>
       <c r="L2">
-        <v>40.72724109991818</v>
+        <v>10.62301137060219</v>
       </c>
       <c r="M2">
-        <v>33.43413153009342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.48431545145526</v>
+      </c>
+      <c r="O2">
+        <v>28.08943042321777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.04701478594873</v>
+        <v>16.26054826812017</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.56620139302244</v>
+        <v>3.274725014551362</v>
       </c>
       <c r="E3">
-        <v>27.67244163707667</v>
+        <v>17.11208540952806</v>
       </c>
       <c r="F3">
-        <v>62.36751598239043</v>
+        <v>34.0418987391564</v>
       </c>
       <c r="G3">
-        <v>1.918379992197607</v>
+        <v>2.037035647246695</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.20511965965238</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.75336976073407</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>28.2163420938133</v>
       </c>
       <c r="L3">
-        <v>37.36410761135195</v>
+        <v>9.898381102728308</v>
       </c>
       <c r="M3">
-        <v>30.78277504889736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.78473294874762</v>
+      </c>
+      <c r="O3">
+        <v>26.53834435491536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.25348074320481</v>
+        <v>15.65894031400888</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.78792721908177</v>
+        <v>3.312038334468467</v>
       </c>
       <c r="E4">
-        <v>26.18608099891342</v>
+        <v>16.6190412910514</v>
       </c>
       <c r="F4">
-        <v>58.70974134860495</v>
+        <v>32.69650116606613</v>
       </c>
       <c r="G4">
-        <v>1.941245533908191</v>
+        <v>2.044919478360437</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.90838772189359</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15.03214747988991</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>26.86430340420333</v>
       </c>
       <c r="L4">
-        <v>35.27129590919265</v>
+        <v>9.43140737807664</v>
       </c>
       <c r="M4">
-        <v>29.12178603306505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.97130721782616</v>
+      </c>
+      <c r="O4">
+        <v>25.58057656746323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.92158603853501</v>
+        <v>15.40983982944273</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.46995367513746</v>
+        <v>3.328236994006559</v>
       </c>
       <c r="E5">
-        <v>25.57364734761674</v>
+        <v>16.41521097447884</v>
       </c>
       <c r="F5">
-        <v>57.22569483157677</v>
+        <v>32.14381646005427</v>
       </c>
       <c r="G5">
-        <v>1.950434650459639</v>
+        <v>2.048173376323791</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.19213622788965</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.73550973986564</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>26.29681929606467</v>
       </c>
       <c r="L5">
-        <v>34.40766606846361</v>
+        <v>9.23548605640489</v>
       </c>
       <c r="M5">
-        <v>28.43400066370721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.04795159305058</v>
+      </c>
+      <c r="O5">
+        <v>25.18919806859203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.86594587841292</v>
+        <v>15.36824655461144</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.41705815451154</v>
+        <v>3.330983987036885</v>
       </c>
       <c r="E6">
-        <v>25.47147570266909</v>
+        <v>16.38119013787589</v>
       </c>
       <c r="F6">
-        <v>56.9794732169791</v>
+        <v>32.05178937911338</v>
       </c>
       <c r="G6">
-        <v>1.951954619745437</v>
+        <v>2.048716276330655</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.2391264221867</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.68605910839168</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>26.2015839608913</v>
       </c>
       <c r="L6">
-        <v>34.26351785396841</v>
+        <v>9.202611505816211</v>
       </c>
       <c r="M6">
-        <v>28.31907188452087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.06071765866254</v>
+      </c>
+      <c r="O6">
+        <v>25.12415481240315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.24903987816174</v>
+        <v>15.65559647494166</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.78364441218858</v>
+        <v>3.312252900753741</v>
       </c>
       <c r="E7">
-        <v>26.1778520620191</v>
+        <v>16.61630411730943</v>
       </c>
       <c r="F7">
-        <v>58.68970950743317</v>
+        <v>32.68906481527282</v>
       </c>
       <c r="G7">
-        <v>1.941369894530381</v>
+        <v>2.044963190020678</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.91222383729483</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15.02815935021634</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>26.85671733319937</v>
       </c>
       <c r="L7">
-        <v>35.25969663756292</v>
+        <v>9.42878799342445</v>
       </c>
       <c r="M7">
-        <v>29.11255745951092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.97233828253781</v>
+      </c>
+      <c r="O7">
+        <v>25.5753022328399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.86626411567699</v>
+        <v>16.88840697041504</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.39918320067526</v>
+        <v>3.238590046060704</v>
       </c>
       <c r="E8">
-        <v>29.24361607124155</v>
+        <v>17.62823562904499</v>
       </c>
       <c r="F8">
-        <v>66.3154252567744</v>
+        <v>35.4614301194193</v>
       </c>
       <c r="G8">
-        <v>1.893325099946621</v>
+        <v>2.028752867738989</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.439856164730132</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>16.51704729550691</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>29.60339115134652</v>
       </c>
       <c r="L8">
-        <v>39.57073903784263</v>
+        <v>10.37768234465533</v>
       </c>
       <c r="M8">
-        <v>32.52496968089003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.58751155818766</v>
+      </c>
+      <c r="O8">
+        <v>27.55586784905217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.82730924244056</v>
+        <v>19.16783297207881</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.74280556401222</v>
+        <v>3.134193852914283</v>
       </c>
       <c r="E9">
-        <v>35.35375622337732</v>
+        <v>19.52266346616167</v>
       </c>
       <c r="F9">
-        <v>82.36164815585082</v>
+        <v>40.74109872644389</v>
       </c>
       <c r="G9">
-        <v>1.786897060821603</v>
+        <v>1.997946891421768</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.271904059857722</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>19.4866370131518</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>34.49090251885487</v>
       </c>
       <c r="L9">
-        <v>48.07182048436259</v>
+        <v>12.06780050109438</v>
       </c>
       <c r="M9">
-        <v>39.13782357717825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.8455411771202</v>
+      </c>
+      <c r="O9">
+        <v>31.3907454169921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.98302864012005</v>
+        <v>20.75326564188891</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.70993087849696</v>
+        <v>3.090846256069387</v>
       </c>
       <c r="E10">
-        <v>40.53588234095047</v>
+        <v>20.86600672794572</v>
       </c>
       <c r="F10">
-        <v>96.65247746132577</v>
+        <v>44.7590545862975</v>
       </c>
       <c r="G10">
-        <v>1.685059011849733</v>
+        <v>1.975601269507669</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.403422236284501</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.98954510973593</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>37.79987435326955</v>
       </c>
       <c r="L10">
-        <v>55.10790414357967</v>
+        <v>13.21240396939122</v>
       </c>
       <c r="M10">
-        <v>44.4670637535735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.30160476572412</v>
+      </c>
+      <c r="O10">
+        <v>34.42627812569725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.03678085596642</v>
+        <v>21.47854480074162</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21.47566478215636</v>
+        <v>3.080779834511526</v>
       </c>
       <c r="E11">
-        <v>43.52988276970034</v>
+        <v>21.4691093839912</v>
       </c>
       <c r="F11">
-        <v>105.0831850973804</v>
+        <v>46.57813426109043</v>
       </c>
       <c r="G11">
-        <v>1.621447385090188</v>
+        <v>1.965415213510987</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.71242829383583</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>23.42526462304692</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>39.24984509063422</v>
       </c>
       <c r="L11">
-        <v>59.04657005243264</v>
+        <v>13.71385979264018</v>
       </c>
       <c r="M11">
-        <v>47.37858963724182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.05268922882246</v>
+      </c>
+      <c r="O11">
+        <v>35.84799037754678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.47297423376007</v>
+        <v>21.77160740018674</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.31261193070577</v>
+        <v>3.078593567322015</v>
       </c>
       <c r="E12">
-        <v>44.92974913656096</v>
+        <v>21.69663658289516</v>
       </c>
       <c r="F12">
-        <v>109.0419023977437</v>
+        <v>47.26332228552428</v>
       </c>
       <c r="G12">
-        <v>1.590581490803013</v>
+        <v>1.96154676892343</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.481817513844917</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>24.09387144111523</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>39.79153332627182</v>
       </c>
       <c r="L12">
-        <v>60.84320315284239</v>
+        <v>13.9011627335716</v>
       </c>
       <c r="M12">
-        <v>48.68645842664608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.95804958412872</v>
+      </c>
+      <c r="O12">
+        <v>36.38350396327239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.37611583136867</v>
+        <v>21.7086747354189</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.11966729106793</v>
+        <v>3.078987992182632</v>
       </c>
       <c r="E13">
-        <v>44.6080129751901</v>
+        <v>21.64766697582223</v>
       </c>
       <c r="F13">
-        <v>108.1319081418166</v>
+        <v>47.11590357769769</v>
       </c>
       <c r="G13">
-        <v>1.597735775713573</v>
+        <v>1.962380551167605</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.305144968982291</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23.94034703616902</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>39.6751894891787</v>
       </c>
       <c r="L13">
-        <v>60.43319206230061</v>
+        <v>13.86093564824426</v>
       </c>
       <c r="M13">
-        <v>48.38919370496331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.97845182555933</v>
+      </c>
+      <c r="O13">
+        <v>36.26828721052861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.07153040898188</v>
+        <v>21.50273828410414</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>21.53953660491776</v>
+        <v>3.080565913634215</v>
       </c>
       <c r="E14">
-        <v>43.63711540310354</v>
+        <v>21.48784333564866</v>
       </c>
       <c r="F14">
-        <v>105.3862893789021</v>
+        <v>46.63457346364129</v>
       </c>
       <c r="G14">
-        <v>1.619107422540818</v>
+        <v>1.965097230602088</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.771396039577369</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>23.47653970767077</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>39.29455452996329</v>
       </c>
       <c r="L14">
-        <v>59.18532217471063</v>
+        <v>13.72932005992362</v>
       </c>
       <c r="M14">
-        <v>47.48007350747488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.04491185790261</v>
+      </c>
+      <c r="O14">
+        <v>35.89210061550278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.89156643070361</v>
+        <v>21.37605503420537</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.21335442404488</v>
+        <v>3.081751740662301</v>
       </c>
       <c r="E15">
-        <v>43.08876324562394</v>
+        <v>21.38984555694166</v>
       </c>
       <c r="F15">
-        <v>103.8368242488818</v>
+        <v>46.33929380027214</v>
       </c>
       <c r="G15">
-        <v>1.631029528631551</v>
+        <v>1.966759549671342</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.469910261773979</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>23.21423125687476</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>39.06046133680066</v>
       </c>
       <c r="L15">
-        <v>58.47394849067724</v>
+        <v>13.64837048240932</v>
       </c>
       <c r="M15">
-        <v>46.95895388957562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.08556551667419</v>
+      </c>
+      <c r="O15">
+        <v>35.66132410666837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.91694752621698</v>
+        <v>20.70701152173278</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.60819353522067</v>
+        <v>3.091717954778582</v>
       </c>
       <c r="E16">
-        <v>40.36150336974548</v>
+        <v>20.82645511663009</v>
       </c>
       <c r="F16">
-        <v>96.16426042049187</v>
+        <v>44.63961689514384</v>
       </c>
       <c r="G16">
-        <v>1.688658597639451</v>
+        <v>1.976265860045949</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.501636352518366</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.90567951001463</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>37.70404918416689</v>
       </c>
       <c r="L16">
-        <v>54.87509655624042</v>
+        <v>13.17926028827659</v>
       </c>
       <c r="M16">
-        <v>44.29321555987751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.31782845686032</v>
+      </c>
+      <c r="O16">
+        <v>34.33292909299361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.34602948388553</v>
+        <v>20.29949215174067</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.76303839167407</v>
+        <v>3.100463439851655</v>
       </c>
       <c r="E17">
-        <v>38.90428519197474</v>
+        <v>20.47897162275706</v>
       </c>
       <c r="F17">
-        <v>92.10135409351604</v>
+        <v>43.58955346356191</v>
       </c>
       <c r="G17">
-        <v>1.718273005286136</v>
+        <v>1.982086882520725</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.318881147616649</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.20381352501407</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>36.85814857782618</v>
       </c>
       <c r="L17">
-        <v>52.91733186978522</v>
+        <v>12.88666942671844</v>
       </c>
       <c r="M17">
-        <v>42.82412953286382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.45982416018668</v>
+      </c>
+      <c r="O17">
+        <v>33.5122077812212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.02249619311444</v>
+        <v>20.06326954400803</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.30779951759654</v>
+        <v>3.106386097155254</v>
       </c>
       <c r="E18">
-        <v>38.11273878845937</v>
+        <v>20.27833412186923</v>
       </c>
       <c r="F18">
-        <v>89.90875127335697</v>
+        <v>42.9826506944229</v>
       </c>
       <c r="G18">
-        <v>1.73400740082716</v>
+        <v>1.985433572374035</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.75958296058364</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20.82181684928607</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>36.36636547049404</v>
       </c>
       <c r="L18">
-        <v>51.84552202255068</v>
+        <v>12.71655679427245</v>
       </c>
       <c r="M18">
-        <v>42.01467302066813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.54136885669665</v>
+      </c>
+      <c r="O18">
+        <v>33.03783256649619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.91350067094702</v>
+        <v>19.9829735586397</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.15783475140672</v>
+        <v>3.108537960470491</v>
       </c>
       <c r="E19">
-        <v>37.85093442947849</v>
+        <v>20.21026104652885</v>
       </c>
       <c r="F19">
-        <v>89.18601356198825</v>
+        <v>42.77664048799521</v>
       </c>
       <c r="G19">
-        <v>1.739156697029512</v>
+        <v>1.986566691145693</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.904756175121245</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>20.69535997022462</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>36.19893968144609</v>
       </c>
       <c r="L19">
-        <v>51.48984693936001</v>
+        <v>12.65864163894281</v>
       </c>
       <c r="M19">
-        <v>41.7452820789393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.56896132030052</v>
+      </c>
+      <c r="O19">
+        <v>32.87680286621806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.4062280432776</v>
+        <v>20.34306221169136</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.849511246104</v>
+        <v>3.099438477687803</v>
       </c>
       <c r="E20">
-        <v>39.05410532755255</v>
+        <v>20.51604007851609</v>
       </c>
       <c r="F20">
-        <v>92.51756253397959</v>
+        <v>43.70163342551451</v>
       </c>
       <c r="G20">
-        <v>1.715266886314306</v>
+        <v>1.981467425738719</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.235187439532011</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.27605778234422</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>36.94873498230601</v>
       </c>
       <c r="L20">
-        <v>53.11956952786306</v>
+        <v>12.91800360111581</v>
       </c>
       <c r="M20">
-        <v>42.97646215915729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.44472280761552</v>
+      </c>
+      <c r="O20">
+        <v>33.5998109030272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.15944480111909</v>
+        <v>21.56333922830063</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>21.70314071290309</v>
+        <v>3.080056267705832</v>
       </c>
       <c r="E21">
-        <v>43.91147387133867</v>
+        <v>21.53480785709608</v>
       </c>
       <c r="F21">
-        <v>106.1619633932079</v>
+        <v>46.7760441867768</v>
       </c>
       <c r="G21">
-        <v>1.613101831792392</v>
+        <v>1.964299652172586</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.922269675383235</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>23.60768397838576</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>39.40655168357892</v>
       </c>
       <c r="L21">
-        <v>59.53950386322745</v>
+        <v>13.76804741990115</v>
       </c>
       <c r="M21">
-        <v>47.73876733904552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.02540274232141</v>
+      </c>
+      <c r="O21">
+        <v>36.00266764418354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.79633975684209</v>
+        <v>22.40874826043138</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>25.69591540676433</v>
+        <v>3.076998071980261</v>
       </c>
       <c r="E22">
-        <v>50.49898549483525</v>
+        <v>22.19584793357479</v>
       </c>
       <c r="F22">
-        <v>124.6455620743446</v>
+        <v>48.76451767929418</v>
       </c>
       <c r="G22">
-        <v>1.461833527492078</v>
+        <v>1.953009366399315</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.470897930187087</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>26.74047101775077</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>40.97016758345072</v>
       </c>
       <c r="L22">
-        <v>67.59102783999879</v>
+        <v>14.30862155786194</v>
       </c>
       <c r="M22">
-        <v>53.46049713652729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.74903531670411</v>
+      </c>
+      <c r="O22">
+        <v>37.55681448302257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.7772712035499</v>
+        <v>21.95969875797844</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22.95068688824496</v>
+        <v>3.07766411551223</v>
       </c>
       <c r="E23">
-        <v>45.98989383830427</v>
+        <v>21.84335680020193</v>
       </c>
       <c r="F23">
-        <v>112.0387047496019</v>
+        <v>47.70484093360452</v>
       </c>
       <c r="G23">
-        <v>1.566763337263178</v>
+        <v>1.959044698951752</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.062439426937954</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>24.59917001134627</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>40.13933250989935</v>
       </c>
       <c r="L23">
-        <v>62.18082744495545</v>
+        <v>14.02141136694068</v>
       </c>
       <c r="M23">
-        <v>49.65105639984298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.89681270516859</v>
+      </c>
+      <c r="O23">
+        <v>36.7285806847536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.37899869031294</v>
+        <v>20.32337021653083</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.8103255638236</v>
+        <v>3.099899093705252</v>
       </c>
       <c r="E24">
-        <v>38.98623432900805</v>
+        <v>20.49928414373001</v>
       </c>
       <c r="F24">
-        <v>92.32896750978487</v>
+        <v>43.65097211804539</v>
       </c>
       <c r="G24">
-        <v>1.716629809255317</v>
+        <v>1.981747481219251</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.273112473160455</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.24333227168071</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>36.9077979282361</v>
       </c>
       <c r="L24">
-        <v>53.02797820919613</v>
+        <v>12.90384334652751</v>
       </c>
       <c r="M24">
-        <v>42.90748835604979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.45155039874128</v>
+      </c>
+      <c r="O24">
+        <v>33.56021346134158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.04150473335341</v>
+        <v>18.56669446690476</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.79337369196879</v>
+        <v>3.157307374747091</v>
       </c>
       <c r="E25">
-        <v>33.649705813663</v>
+        <v>19.01933403642171</v>
       </c>
       <c r="F25">
-        <v>77.78581028321263</v>
+        <v>39.32986056560915</v>
       </c>
       <c r="G25">
-        <v>1.818047976852172</v>
+        <v>2.006205212323484</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.183306841064022</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>18.65959963459385</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>33.21997643675236</v>
       </c>
       <c r="L25">
-        <v>45.71727655342085</v>
+        <v>11.62819202029701</v>
       </c>
       <c r="M25">
-        <v>37.32336674853222</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.04553223736402</v>
+      </c>
+      <c r="O25">
+        <v>30.35893731942542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.21339913082429</v>
+        <v>6.682675767384754</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.221057133170863</v>
+        <v>2.837416649827869</v>
       </c>
       <c r="E2">
-        <v>17.89620245636319</v>
+        <v>30.1099158946667</v>
       </c>
       <c r="F2">
-        <v>36.20221926653915</v>
+        <v>24.5465575989854</v>
       </c>
       <c r="G2">
-        <v>2.024437343799277</v>
+        <v>35.17626989032687</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.28702868384384</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.852550366691</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.31312660837198</v>
+        <v>20.12984385921952</v>
       </c>
       <c r="L2">
-        <v>10.62301137060219</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.48431545145526</v>
+        <v>11.20315609131129</v>
       </c>
       <c r="O2">
-        <v>28.08943042321777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.26054826812017</v>
+        <v>6.301548952984187</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.274725014551362</v>
+        <v>2.875229585033349</v>
       </c>
       <c r="E3">
-        <v>17.11208540952806</v>
+        <v>27.87987763938947</v>
       </c>
       <c r="F3">
-        <v>34.0418987391564</v>
+        <v>23.31263672013702</v>
       </c>
       <c r="G3">
-        <v>2.037035647246695</v>
+        <v>33.13824967812241</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.03930986885476</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.13198552835538</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.2163420938133</v>
+        <v>18.81189071289241</v>
       </c>
       <c r="L3">
-        <v>9.898381102728308</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.78473294874762</v>
+        <v>11.44886861396788</v>
       </c>
       <c r="O3">
-        <v>26.53834435491536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.65894031400888</v>
+        <v>6.054592024897929</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.312038334468467</v>
+        <v>2.898513123595048</v>
       </c>
       <c r="E4">
-        <v>16.6190412910514</v>
+        <v>26.45069136542377</v>
       </c>
       <c r="F4">
-        <v>32.69650116606613</v>
+        <v>22.55421275322152</v>
       </c>
       <c r="G4">
-        <v>2.044919478360437</v>
+        <v>31.87537318802637</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.896410475257928</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.309752790728</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.86430340420333</v>
+        <v>17.96162113150539</v>
       </c>
       <c r="L4">
-        <v>9.43140737807664</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.97130721782616</v>
+        <v>11.60177467287222</v>
       </c>
       <c r="O4">
-        <v>25.58057656746323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.40983982944273</v>
+        <v>5.950728611625576</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.328236994006559</v>
+        <v>2.908026482416395</v>
       </c>
       <c r="E5">
-        <v>16.41521097447884</v>
+        <v>25.85276388053261</v>
       </c>
       <c r="F5">
-        <v>32.14381646005427</v>
+        <v>22.2452648802495</v>
       </c>
       <c r="G5">
-        <v>2.048173376323791</v>
+        <v>31.35829928695159</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.840451958050243</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.38373576180005</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>26.29681929606467</v>
+        <v>17.6047205555129</v>
       </c>
       <c r="L5">
-        <v>9.23548605640489</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.04795159305058</v>
+        <v>11.66465410893678</v>
       </c>
       <c r="O5">
-        <v>25.18919806859203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.36824655461144</v>
+        <v>5.933288298633891</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.330983987036885</v>
+        <v>2.909607937579871</v>
       </c>
       <c r="E6">
-        <v>16.38119013787589</v>
+        <v>25.75252843775613</v>
       </c>
       <c r="F6">
-        <v>32.05178937911338</v>
+        <v>22.1939818501597</v>
       </c>
       <c r="G6">
-        <v>2.048716276330655</v>
+        <v>31.27230813493406</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.831296221862095</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.39611329318361</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>26.2015839608913</v>
+        <v>17.54482665866221</v>
       </c>
       <c r="L6">
-        <v>9.202611505816211</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.06071765866254</v>
+        <v>11.67513112488589</v>
       </c>
       <c r="O6">
-        <v>25.12415481240315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.65559647494166</v>
+        <v>6.053204306774746</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.312252900753741</v>
+        <v>2.898641310985629</v>
       </c>
       <c r="E7">
-        <v>16.61630411730943</v>
+        <v>26.44269092738109</v>
       </c>
       <c r="F7">
-        <v>32.68906481527282</v>
+        <v>22.55004523810631</v>
       </c>
       <c r="G7">
-        <v>2.044963190020678</v>
+        <v>31.86840892924574</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.895646645671093</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.31074432766554</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.85671733319937</v>
+        <v>17.95685009181217</v>
       </c>
       <c r="L7">
-        <v>9.42878799342445</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.97233828253781</v>
+        <v>11.60262031163619</v>
       </c>
       <c r="O7">
-        <v>25.5753022328399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.88840697041504</v>
+        <v>6.553964079047605</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.238590046060704</v>
+        <v>2.850445822602133</v>
       </c>
       <c r="E8">
-        <v>17.62823562904499</v>
+        <v>29.35315400831922</v>
       </c>
       <c r="F8">
-        <v>35.4614301194193</v>
+        <v>24.12143311457062</v>
       </c>
       <c r="G8">
-        <v>2.028752867738989</v>
+        <v>34.47618235280362</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.19968244478543</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.94760323106724</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.60339115134652</v>
+        <v>19.68387130081143</v>
       </c>
       <c r="L8">
-        <v>10.37768234465533</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.58751155818766</v>
+        <v>11.28749047005965</v>
       </c>
       <c r="O8">
-        <v>27.55586784905217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.16783297207881</v>
+        <v>7.432407655798586</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.134193852914283</v>
+        <v>2.756098605301394</v>
       </c>
       <c r="E9">
-        <v>19.52266346616167</v>
+        <v>34.60762167567941</v>
       </c>
       <c r="F9">
-        <v>40.74109872644389</v>
+        <v>27.18669896847773</v>
       </c>
       <c r="G9">
-        <v>1.997946891421768</v>
+        <v>39.48605239056389</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.87067188455059</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.28561591449968</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.49090251885487</v>
+        <v>22.75010380905555</v>
       </c>
       <c r="L9">
-        <v>12.06780050109438</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.8455411771202</v>
+        <v>10.68285278899187</v>
       </c>
       <c r="O9">
-        <v>31.3907454169921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.75326564188891</v>
+        <v>8.014000502807333</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.090846256069387</v>
+        <v>2.686438287543129</v>
       </c>
       <c r="E10">
-        <v>20.86600672794572</v>
+        <v>38.22756521142935</v>
       </c>
       <c r="F10">
-        <v>44.7590545862975</v>
+        <v>29.42161207246452</v>
       </c>
       <c r="G10">
-        <v>1.975601269507669</v>
+        <v>43.13877882333191</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.41200453281264</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.83174807790836</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>37.79987435326955</v>
+        <v>24.81643600309646</v>
       </c>
       <c r="L10">
-        <v>13.21240396939122</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.30160476572412</v>
+        <v>10.24230319392058</v>
       </c>
       <c r="O10">
-        <v>34.42627812569725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.47854480074162</v>
+        <v>8.264685976537082</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.080779834511526</v>
+        <v>2.65460528408702</v>
       </c>
       <c r="E11">
-        <v>21.4691093839912</v>
+        <v>39.83150200069365</v>
       </c>
       <c r="F11">
-        <v>46.57813426109043</v>
+        <v>30.48511937797582</v>
       </c>
       <c r="G11">
-        <v>1.965415213510987</v>
+        <v>44.82403170723708</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.66955402576106</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.63297011491045</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>39.24984509063422</v>
+        <v>25.71844666194053</v>
       </c>
       <c r="L11">
-        <v>13.71385979264018</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.05268922882246</v>
+        <v>10.04153171724013</v>
       </c>
       <c r="O11">
-        <v>35.84799037754678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.77160740018674</v>
+        <v>8.357618176650497</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.078593567322015</v>
+        <v>2.642527894992881</v>
       </c>
       <c r="E12">
-        <v>21.69663658289516</v>
+        <v>40.43363949652588</v>
       </c>
       <c r="F12">
-        <v>47.26332228552428</v>
+        <v>30.91404175652771</v>
       </c>
       <c r="G12">
-        <v>1.96154676892343</v>
+        <v>45.4596194300384</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.76879020885247</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.55887849825193</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>39.79153332627182</v>
+        <v>26.05479705129684</v>
       </c>
       <c r="L12">
-        <v>13.9011627335716</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.95804958412872</v>
+        <v>9.965341069697633</v>
       </c>
       <c r="O12">
-        <v>36.38350396327239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.7086747354189</v>
+        <v>8.337692355573525</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.078987992182632</v>
+        <v>2.645129994019301</v>
       </c>
       <c r="E13">
-        <v>21.64766697582223</v>
+        <v>40.3041752567549</v>
       </c>
       <c r="F13">
-        <v>47.11590357769769</v>
+        <v>30.8217767461406</v>
       </c>
       <c r="G13">
-        <v>1.962380551167605</v>
+        <v>45.32284080983831</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.74734039492238</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.57478149934225</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>39.6751894891787</v>
+        <v>25.98258599651684</v>
       </c>
       <c r="L13">
-        <v>13.86093564824426</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.97845182555933</v>
+        <v>9.981759262999525</v>
       </c>
       <c r="O13">
-        <v>36.26828721052861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.50273828410414</v>
+        <v>8.272371578557054</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.080565913634215</v>
+        <v>2.653612129745287</v>
       </c>
       <c r="E14">
-        <v>21.48784333564866</v>
+        <v>39.88113944252081</v>
       </c>
       <c r="F14">
-        <v>46.63457346364129</v>
+        <v>30.52045764061277</v>
       </c>
       <c r="G14">
-        <v>1.965097230602088</v>
+        <v>44.87637070758493</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.67768346135656</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.62685037499051</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>39.29455452996329</v>
+        <v>25.74622155509235</v>
       </c>
       <c r="L14">
-        <v>13.72932005992362</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.04491185790261</v>
+        <v>10.03526742037586</v>
       </c>
       <c r="O14">
-        <v>35.89210061550278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.37605503420537</v>
+        <v>8.232100691943366</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.081751740662301</v>
+        <v>2.658804690289587</v>
       </c>
       <c r="E15">
-        <v>21.38984555694166</v>
+        <v>39.62136520146321</v>
       </c>
       <c r="F15">
-        <v>46.33929380027214</v>
+        <v>30.33555990185133</v>
       </c>
       <c r="G15">
-        <v>1.966759549671342</v>
+        <v>44.60257361092089</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.63524184013323</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.65890048063228</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>39.06046133680066</v>
+        <v>25.60076924665576</v>
       </c>
       <c r="L15">
-        <v>13.64837048240932</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.08556551667419</v>
+        <v>10.06801795387226</v>
       </c>
       <c r="O15">
-        <v>35.66132410666837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.70701152173278</v>
+        <v>7.99733812899366</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.091717954778582</v>
+        <v>2.688515487873778</v>
       </c>
       <c r="E16">
-        <v>20.82645511663009</v>
+        <v>38.12195808793314</v>
       </c>
       <c r="F16">
-        <v>44.63961689514384</v>
+        <v>29.35533380863702</v>
       </c>
       <c r="G16">
-        <v>1.976265860045949</v>
+        <v>43.02825657766883</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.39540700876165</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.84489943879648</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>37.70404918416689</v>
+        <v>24.75674297233615</v>
       </c>
       <c r="L16">
-        <v>13.17926028827659</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.31782845686032</v>
+        <v>10.25540766479931</v>
       </c>
       <c r="O16">
-        <v>34.33292909299361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.29949215174067</v>
+        <v>7.849761580581603</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.100463439851655</v>
+        <v>2.70670264558761</v>
       </c>
       <c r="E17">
-        <v>20.47897162275706</v>
+        <v>37.19176786704486</v>
       </c>
       <c r="F17">
-        <v>43.58955346356191</v>
+        <v>28.7741146941261</v>
       </c>
       <c r="G17">
-        <v>1.982086882520725</v>
+        <v>42.05738087005809</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.25122192463503</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.96102105239362</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>36.85814857782618</v>
+        <v>24.2293930912933</v>
       </c>
       <c r="L17">
-        <v>12.88666942671844</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.45982416018668</v>
+        <v>10.37019815788446</v>
       </c>
       <c r="O17">
-        <v>33.5122077812212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.06326954400803</v>
+        <v>7.763572436389028</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.106386097155254</v>
+        <v>2.717149821436319</v>
       </c>
       <c r="E18">
-        <v>20.27833412186923</v>
+        <v>36.65265678518733</v>
       </c>
       <c r="F18">
-        <v>42.9826506944229</v>
+        <v>28.43947796520795</v>
       </c>
       <c r="G18">
-        <v>1.985433572374035</v>
+        <v>41.51368169918454</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.16934747015159</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.02852928782869</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>36.36636547049404</v>
+        <v>23.92248473157117</v>
       </c>
       <c r="L18">
-        <v>12.71655679427245</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.54136885669665</v>
+        <v>10.43619587774547</v>
       </c>
       <c r="O18">
-        <v>33.03783256649619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.9829735586397</v>
+        <v>7.734165854906089</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.108537960470491</v>
+        <v>2.72068483796707</v>
       </c>
       <c r="E19">
-        <v>20.21026104652885</v>
+        <v>36.46939489046515</v>
       </c>
       <c r="F19">
-        <v>42.77664048799521</v>
+        <v>28.32611555079775</v>
       </c>
       <c r="G19">
-        <v>1.986566691145693</v>
+        <v>41.3305641463521</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.14180551727605</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.05150775881763</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>36.19893968144609</v>
+        <v>23.81794742786443</v>
       </c>
       <c r="L19">
-        <v>12.65864163894281</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.56896132030052</v>
+        <v>10.45854010495679</v>
       </c>
       <c r="O19">
-        <v>32.87680286621806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.34306221169136</v>
+        <v>7.865606639978694</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.099438477687803</v>
+        <v>2.704768024849376</v>
       </c>
       <c r="E20">
-        <v>20.51604007851609</v>
+        <v>37.29120534916313</v>
       </c>
       <c r="F20">
-        <v>43.70163342551451</v>
+        <v>28.83602041965668</v>
       </c>
       <c r="G20">
-        <v>1.981467425738719</v>
+        <v>42.16093578549826</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.26646074044305</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.94858489455049</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>36.94873498230601</v>
+        <v>24.28590038756959</v>
       </c>
       <c r="L20">
-        <v>12.91800360111581</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.44472280761552</v>
+        <v>10.35798203354576</v>
       </c>
       <c r="O20">
-        <v>33.5998109030272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.56333922830063</v>
+        <v>8.291612059820325</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.080056267705832</v>
+        <v>2.651121343396495</v>
       </c>
       <c r="E21">
-        <v>21.53480785709608</v>
+        <v>40.00552947160315</v>
       </c>
       <c r="F21">
-        <v>46.7760441867768</v>
+        <v>30.60903076463692</v>
       </c>
       <c r="G21">
-        <v>1.964299652172586</v>
+        <v>45.0075757944282</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.69809626533669</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.61152372379788</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>39.40655168357892</v>
+        <v>25.81578714022756</v>
       </c>
       <c r="L21">
-        <v>13.76804741990115</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.02540274232141</v>
+        <v>10.01955615714574</v>
       </c>
       <c r="O21">
-        <v>36.00266764418354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.40874826043138</v>
+        <v>8.558393234450197</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.076998071980261</v>
+        <v>2.615928253774848</v>
       </c>
       <c r="E22">
-        <v>22.19584793357479</v>
+        <v>41.74949887143227</v>
       </c>
       <c r="F22">
-        <v>48.76451767929418</v>
+        <v>31.85294838235964</v>
       </c>
       <c r="G22">
-        <v>1.953009366399315</v>
+        <v>46.85328274755919</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.99020534017017</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.39817028934723</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>40.97016758345072</v>
+        <v>26.78536061799112</v>
       </c>
       <c r="L22">
-        <v>14.30862155786194</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.74903531670411</v>
+        <v>9.797362775939368</v>
       </c>
       <c r="O22">
-        <v>37.55681448302257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.95969875797844</v>
+        <v>8.417071392859798</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.07766411551223</v>
+        <v>2.634723298729999</v>
       </c>
       <c r="E23">
-        <v>21.84335680020193</v>
+        <v>40.82111244411284</v>
       </c>
       <c r="F23">
-        <v>47.70484093360452</v>
+        <v>31.19031161525714</v>
       </c>
       <c r="G23">
-        <v>1.959044698951752</v>
+        <v>45.86936526276947</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.83335154486704</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.51137609848059</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>40.13933250989935</v>
+        <v>26.27056410815485</v>
       </c>
       <c r="L23">
-        <v>14.02141136694068</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.89681270516859</v>
+        <v>9.916085032463023</v>
       </c>
       <c r="O23">
-        <v>36.7285806847536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.32337021653083</v>
+        <v>7.858447279247835</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.099899093705252</v>
+        <v>2.705642694298243</v>
       </c>
       <c r="E24">
-        <v>20.49928414373001</v>
+        <v>37.2462632246572</v>
       </c>
       <c r="F24">
-        <v>43.65097211804539</v>
+        <v>28.8080343645805</v>
       </c>
       <c r="G24">
-        <v>1.981747481219251</v>
+        <v>42.1141256231733</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.25956810240899</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.95420495597079</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>36.9077979282361</v>
+        <v>24.26036506802434</v>
       </c>
       <c r="L24">
-        <v>12.90384334652751</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.45155039874128</v>
+        <v>10.36350492546038</v>
       </c>
       <c r="O24">
-        <v>33.56021346134158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.56669446690476</v>
+        <v>7.20594084479599</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.157307374747091</v>
+        <v>2.781653786420892</v>
       </c>
       <c r="E25">
-        <v>19.01933403642171</v>
+        <v>33.23122728158837</v>
       </c>
       <c r="F25">
-        <v>39.32986056560915</v>
+        <v>26.36026272460398</v>
       </c>
       <c r="G25">
-        <v>2.006205212323484</v>
+        <v>38.143036504474</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.68088213996948</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.45916955248202</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.21997643675236</v>
+        <v>21.95408384013452</v>
       </c>
       <c r="L25">
-        <v>11.62819202029701</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.04553223736402</v>
+        <v>10.84542453550769</v>
       </c>
       <c r="O25">
-        <v>30.35893731942542</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.682675767384754</v>
+        <v>5.964396016490747</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.837416649827869</v>
+        <v>4.206718196610706</v>
       </c>
       <c r="E2">
-        <v>30.1099158946667</v>
+        <v>16.51181434500207</v>
       </c>
       <c r="F2">
-        <v>24.5465575989854</v>
+        <v>24.86926765575648</v>
       </c>
       <c r="G2">
-        <v>35.17626989032687</v>
+        <v>30.63217645484141</v>
       </c>
       <c r="H2">
-        <v>10.28702868384384</v>
+        <v>14.09805022422436</v>
       </c>
       <c r="I2">
-        <v>11.852550366691</v>
+        <v>18.78269164326545</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.12984385921952</v>
+        <v>11.98120274892911</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.20315609131129</v>
+        <v>17.45144517107364</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.301548952984187</v>
+        <v>5.863659111749999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.875229585033349</v>
+        <v>4.212820874785823</v>
       </c>
       <c r="E3">
-        <v>27.87987763938947</v>
+        <v>15.5719435487692</v>
       </c>
       <c r="F3">
-        <v>23.31263672013702</v>
+        <v>24.67859599536554</v>
       </c>
       <c r="G3">
-        <v>33.13824967812241</v>
+        <v>30.19873842431279</v>
       </c>
       <c r="H3">
-        <v>10.03930986885476</v>
+        <v>14.10734566929737</v>
       </c>
       <c r="I3">
-        <v>12.13198552835538</v>
+        <v>18.87901919925398</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.81189071289241</v>
+        <v>11.47004450851071</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.44886861396788</v>
+        <v>17.51823653641463</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.054592024897929</v>
+        <v>5.801872831340034</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.898513123595048</v>
+        <v>4.216732836313295</v>
       </c>
       <c r="E4">
-        <v>26.45069136542377</v>
+        <v>14.97027272857293</v>
       </c>
       <c r="F4">
-        <v>22.55421275322152</v>
+        <v>24.57000606805609</v>
       </c>
       <c r="G4">
-        <v>31.87537318802637</v>
+        <v>29.94318926086584</v>
       </c>
       <c r="H4">
-        <v>9.896410475257928</v>
+        <v>14.11673086142441</v>
       </c>
       <c r="I4">
-        <v>12.309752790728</v>
+        <v>18.9413650936841</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.96162113150539</v>
+        <v>11.14686325558496</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.60177467287222</v>
+        <v>17.56103399800652</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.950728611625576</v>
+        <v>5.776744075375455</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.908026482416395</v>
+        <v>4.218368799224925</v>
       </c>
       <c r="E5">
-        <v>25.85276388053261</v>
+        <v>14.71917440459052</v>
       </c>
       <c r="F5">
-        <v>22.2452648802495</v>
+        <v>24.52792788309236</v>
       </c>
       <c r="G5">
-        <v>31.35829928695159</v>
+        <v>29.84185166896122</v>
       </c>
       <c r="H5">
-        <v>9.840451958050243</v>
+        <v>14.1214772053647</v>
       </c>
       <c r="I5">
-        <v>12.38373576180005</v>
+        <v>18.96757746869731</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.6047205555129</v>
+        <v>11.01302369953381</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.66465410893678</v>
+        <v>17.5789254519833</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.933288298633891</v>
+        <v>5.772575433372279</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.909607937579871</v>
+        <v>4.218642984868145</v>
       </c>
       <c r="E6">
-        <v>25.75252843775613</v>
+        <v>14.67713155076216</v>
       </c>
       <c r="F6">
-        <v>22.1939818501597</v>
+        <v>24.52107315356945</v>
       </c>
       <c r="G6">
-        <v>31.27230813493406</v>
+        <v>29.82519771984219</v>
       </c>
       <c r="H6">
-        <v>9.831296221862095</v>
+        <v>14.12232090998887</v>
       </c>
       <c r="I6">
-        <v>12.39611329318361</v>
+        <v>18.97197872345448</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.54482665866221</v>
+        <v>10.99067694978259</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.67513112488589</v>
+        <v>17.58192361228029</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.053204306774746</v>
+        <v>5.801533691298077</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.898641310985629</v>
+        <v>4.216754729786631</v>
       </c>
       <c r="E7">
-        <v>26.44269092738109</v>
+        <v>14.96690987275108</v>
       </c>
       <c r="F7">
-        <v>22.55004523810631</v>
+        <v>24.56942973918401</v>
       </c>
       <c r="G7">
-        <v>31.86840892924574</v>
+        <v>29.94181106819096</v>
       </c>
       <c r="H7">
-        <v>9.895646645671093</v>
+        <v>14.11679114434066</v>
       </c>
       <c r="I7">
-        <v>12.31074432766554</v>
+        <v>18.94171533830383</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.95685009181217</v>
+        <v>11.14506662604725</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.60262031163619</v>
+        <v>17.56127345953503</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.553964079047605</v>
+        <v>5.929667712586024</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.850445822602133</v>
+        <v>4.208788380434776</v>
       </c>
       <c r="E8">
-        <v>29.35315400831922</v>
+        <v>16.19299596485927</v>
       </c>
       <c r="F8">
-        <v>24.12143311457062</v>
+        <v>24.80178876902169</v>
       </c>
       <c r="G8">
-        <v>34.47618235280362</v>
+        <v>30.480616359459</v>
       </c>
       <c r="H8">
-        <v>10.19968244478543</v>
+        <v>14.10049030809214</v>
       </c>
       <c r="I8">
-        <v>11.94760323106724</v>
+        <v>18.8152418374671</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.68387130081143</v>
+        <v>11.80700668655098</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.28749047005965</v>
+        <v>17.47410491711418</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.432407655798586</v>
+        <v>6.180048273255006</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.756098605301394</v>
+        <v>4.194459721112154</v>
       </c>
       <c r="E9">
-        <v>34.60762167567941</v>
+        <v>18.48579666097279</v>
       </c>
       <c r="F9">
-        <v>27.18669896847773</v>
+        <v>25.32277469928891</v>
       </c>
       <c r="G9">
-        <v>39.48605239056389</v>
+        <v>31.61471815529229</v>
       </c>
       <c r="H9">
-        <v>10.87067188455059</v>
+        <v>14.09782052512199</v>
       </c>
       <c r="I9">
-        <v>11.28561591449968</v>
+        <v>18.59256814062487</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.75010380905555</v>
+        <v>13.04027989465743</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.68285278899187</v>
+        <v>17.31726956748803</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.014000502807333</v>
+        <v>6.361616370626757</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.686438287543129</v>
+        <v>4.184700796682394</v>
       </c>
       <c r="E10">
-        <v>38.22756521142935</v>
+        <v>20.13690233936268</v>
       </c>
       <c r="F10">
-        <v>29.42161207246452</v>
+        <v>25.74242430399479</v>
       </c>
       <c r="G10">
-        <v>43.13877882333191</v>
+        <v>32.4861849693113</v>
       </c>
       <c r="H10">
-        <v>11.41200453281264</v>
+        <v>14.11384711547207</v>
       </c>
       <c r="I10">
-        <v>10.83174807790836</v>
+        <v>18.44434298452655</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.81643600309646</v>
+        <v>14.06751450193758</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.24230319392058</v>
+        <v>17.21052629457299</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.264685976537082</v>
+        <v>6.44332819885941</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.65460528408702</v>
+        <v>4.18042396008106</v>
       </c>
       <c r="E11">
-        <v>39.83150200069365</v>
+        <v>20.84606385895496</v>
       </c>
       <c r="F11">
-        <v>30.48511937797582</v>
+        <v>25.94064017725295</v>
       </c>
       <c r="G11">
-        <v>44.82403170723708</v>
+        <v>32.88897824281459</v>
       </c>
       <c r="H11">
-        <v>11.66955402576106</v>
+        <v>14.12506089348186</v>
       </c>
       <c r="I11">
-        <v>10.63297011491045</v>
+        <v>18.38023435703142</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.71844666194053</v>
+        <v>14.50923658240671</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.04153171724013</v>
+        <v>17.16378381510475</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.357618176650497</v>
+        <v>6.47411401856504</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.642527894992881</v>
+        <v>4.178827500822298</v>
       </c>
       <c r="E12">
-        <v>40.43363949652588</v>
+        <v>21.10861296275977</v>
       </c>
       <c r="F12">
-        <v>30.91404175652771</v>
+        <v>26.01668819234943</v>
       </c>
       <c r="G12">
-        <v>45.4596194300384</v>
+        <v>33.04225609255004</v>
       </c>
       <c r="H12">
-        <v>11.76879020885247</v>
+        <v>14.12987184832776</v>
       </c>
       <c r="I12">
-        <v>10.55887849825193</v>
+        <v>18.35643446332547</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.05479705129684</v>
+        <v>14.67282427146706</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.965341069697633</v>
+        <v>17.14634289736042</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.337692355573525</v>
+        <v>6.467491164008046</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.645129994019301</v>
+        <v>4.1791703045921</v>
       </c>
       <c r="E13">
-        <v>40.3041752567549</v>
+        <v>21.05233438544342</v>
       </c>
       <c r="F13">
-        <v>30.8217767461406</v>
+        <v>26.00026699218747</v>
       </c>
       <c r="G13">
-        <v>45.32284080983831</v>
+        <v>33.00921427509622</v>
       </c>
       <c r="H13">
-        <v>11.74734039492238</v>
+        <v>14.1288106147066</v>
       </c>
       <c r="I13">
-        <v>10.57478149934225</v>
+        <v>18.3615390080045</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.98258599651684</v>
+        <v>14.63775657752583</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.981759262999525</v>
+        <v>17.15008759810757</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.272371578557054</v>
+        <v>6.445864270637899</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.653612129745287</v>
+        <v>4.180292157353406</v>
       </c>
       <c r="E14">
-        <v>39.88113944252081</v>
+        <v>20.86778387903248</v>
       </c>
       <c r="F14">
-        <v>30.52045764061277</v>
+        <v>25.94687726677566</v>
       </c>
       <c r="G14">
-        <v>44.87637070758493</v>
+        <v>32.90157443760876</v>
       </c>
       <c r="H14">
-        <v>11.67768346135656</v>
+        <v>14.12544537914627</v>
       </c>
       <c r="I14">
-        <v>10.62685037499051</v>
+        <v>18.37826677659873</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.74622155509235</v>
+        <v>14.52276886758854</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.03526742037586</v>
+        <v>17.16234374998077</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.232100691943366</v>
+        <v>6.432595919186944</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.658804690289587</v>
+        <v>4.18098232266713</v>
       </c>
       <c r="E15">
-        <v>39.62136520146321</v>
+        <v>20.75396168375334</v>
       </c>
       <c r="F15">
-        <v>30.33555990185133</v>
+        <v>25.91430124604475</v>
       </c>
       <c r="G15">
-        <v>44.60257361092089</v>
+        <v>32.83573456510347</v>
       </c>
       <c r="H15">
-        <v>11.63524184013323</v>
+        <v>14.12345759711354</v>
       </c>
       <c r="I15">
-        <v>10.65890048063228</v>
+        <v>18.38857507144227</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.60076924665576</v>
+        <v>14.45185586143742</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.06801795387226</v>
+        <v>17.16988473589308</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.99733812899366</v>
+        <v>6.356255959641417</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.688515487873778</v>
+        <v>4.184983543987319</v>
       </c>
       <c r="E16">
-        <v>38.12195808793314</v>
+        <v>20.08971614493692</v>
       </c>
       <c r="F16">
-        <v>29.35533380863702</v>
+        <v>25.7296122149674</v>
       </c>
       <c r="G16">
-        <v>43.02825657766883</v>
+        <v>32.45997523355138</v>
       </c>
       <c r="H16">
-        <v>11.39540700876165</v>
+        <v>14.11319325941311</v>
       </c>
       <c r="I16">
-        <v>10.84489943879648</v>
+        <v>18.44859937288861</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.75674297233615</v>
+        <v>14.03813176708431</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.25540766479931</v>
+        <v>17.21361741983759</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.849761580581603</v>
+        <v>6.309175910270202</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.70670264558761</v>
+        <v>4.187479587286276</v>
       </c>
       <c r="E17">
-        <v>37.19176786704486</v>
+        <v>19.67150763302406</v>
       </c>
       <c r="F17">
-        <v>28.7741146941261</v>
+        <v>25.61814029591926</v>
       </c>
       <c r="G17">
-        <v>42.05738087005809</v>
+        <v>32.23096926182462</v>
       </c>
       <c r="H17">
-        <v>11.25122192463503</v>
+        <v>14.10790169866105</v>
       </c>
       <c r="I17">
-        <v>10.96102105239362</v>
+        <v>18.48627207313397</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.2293930912933</v>
+        <v>13.77777037675449</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.37019815788446</v>
+        <v>17.24090985337526</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.763572436389028</v>
+        <v>6.282015143371317</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.717149821436319</v>
+        <v>4.188930561607215</v>
       </c>
       <c r="E18">
-        <v>36.65265678518733</v>
+        <v>19.42701597012315</v>
       </c>
       <c r="F18">
-        <v>28.43947796520795</v>
+        <v>25.55471712224052</v>
       </c>
       <c r="G18">
-        <v>41.51368169918454</v>
+        <v>32.09985942380217</v>
       </c>
       <c r="H18">
-        <v>11.16934747015159</v>
+        <v>14.10522741502943</v>
       </c>
       <c r="I18">
-        <v>11.02852928782869</v>
+        <v>18.50825292376232</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.92248473157117</v>
+        <v>13.62561045009793</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.43619587774547</v>
+        <v>17.25677872673184</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.734165854906089</v>
+        <v>6.272805887178967</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.72068483796707</v>
+        <v>4.189424476103628</v>
       </c>
       <c r="E19">
-        <v>36.46939489046515</v>
+        <v>19.34355594212839</v>
       </c>
       <c r="F19">
-        <v>28.32611555079775</v>
+        <v>25.53336397855948</v>
       </c>
       <c r="G19">
-        <v>41.3305641463521</v>
+        <v>32.05557744490047</v>
       </c>
       <c r="H19">
-        <v>11.14180551727605</v>
+        <v>14.1043853521439</v>
       </c>
       <c r="I19">
-        <v>11.05150775881763</v>
+        <v>18.51574895872655</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.81794742786443</v>
+        <v>13.5736785633743</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.45854010495679</v>
+        <v>17.26218107161356</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.865606639978694</v>
+        <v>6.314196322066776</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.704768024849376</v>
+        <v>4.187212296230896</v>
       </c>
       <c r="E20">
-        <v>37.29120534916313</v>
+        <v>19.71643511249298</v>
       </c>
       <c r="F20">
-        <v>28.83602041965668</v>
+        <v>25.62993545470038</v>
       </c>
       <c r="G20">
-        <v>42.16093578549826</v>
+        <v>32.25528558395074</v>
       </c>
       <c r="H20">
-        <v>11.26646074044305</v>
+        <v>14.10842677064631</v>
       </c>
       <c r="I20">
-        <v>10.94858489455049</v>
+        <v>18.48222941180163</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.28590038756959</v>
+        <v>13.80573545485052</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.35798203354576</v>
+        <v>17.23798684261624</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.291612059820325</v>
+        <v>6.452221093551957</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.651121343396495</v>
+        <v>4.179962017695664</v>
       </c>
       <c r="E21">
-        <v>40.00552947160315</v>
+        <v>20.92215325870183</v>
       </c>
       <c r="F21">
-        <v>30.60903076463692</v>
+        <v>25.96253283038164</v>
       </c>
       <c r="G21">
-        <v>45.0075757944282</v>
+        <v>32.93317185397156</v>
       </c>
       <c r="H21">
-        <v>11.69809626533669</v>
+        <v>14.1264185085781</v>
       </c>
       <c r="I21">
-        <v>10.61152372379788</v>
+        <v>18.37334049478319</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.81578714022756</v>
+        <v>14.5566435214455</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.01955615714574</v>
+        <v>17.15873679280742</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.558393234450197</v>
+        <v>6.54150238262696</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.615928253774848</v>
+        <v>4.175357978318597</v>
       </c>
       <c r="E22">
-        <v>41.74949887143227</v>
+        <v>21.67523267020787</v>
       </c>
       <c r="F22">
-        <v>31.85294838235964</v>
+        <v>26.18563201188678</v>
       </c>
       <c r="G22">
-        <v>46.85328274755919</v>
+        <v>33.3804992374948</v>
       </c>
       <c r="H22">
-        <v>11.99020534017017</v>
+        <v>14.14146751236327</v>
       </c>
       <c r="I22">
-        <v>10.39817028934723</v>
+        <v>18.30495328642645</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.78536061799112</v>
+        <v>15.02593894926466</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.797362775939368</v>
+        <v>17.10845379246705</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.417071392859798</v>
+        <v>6.493945365385303</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.634723298729999</v>
+        <v>4.177803032094714</v>
       </c>
       <c r="E23">
-        <v>40.82111244411284</v>
+        <v>21.27648427110521</v>
       </c>
       <c r="F23">
-        <v>31.19031161525714</v>
+        <v>26.06605735741926</v>
       </c>
       <c r="G23">
-        <v>45.86936526276947</v>
+        <v>33.1414137641979</v>
       </c>
       <c r="H23">
-        <v>11.83335154486704</v>
+        <v>14.13313452201195</v>
       </c>
       <c r="I23">
-        <v>10.51137609848059</v>
+        <v>18.3411988658052</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.27056410815485</v>
+        <v>14.77743212570614</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.916085032463023</v>
+        <v>17.1351530128361</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.858447279247835</v>
+        <v>6.311926883872894</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.705642694298243</v>
+        <v>4.187333088731136</v>
       </c>
       <c r="E24">
-        <v>37.2462632246572</v>
+        <v>19.69613604198521</v>
       </c>
       <c r="F24">
-        <v>28.8080343645805</v>
+        <v>25.6246007917314</v>
       </c>
       <c r="G24">
-        <v>42.1141256231733</v>
+        <v>32.24429045273982</v>
       </c>
       <c r="H24">
-        <v>11.25956810240899</v>
+        <v>14.10818823960145</v>
       </c>
       <c r="I24">
-        <v>10.95420495597079</v>
+        <v>18.48405609494242</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.26036506802434</v>
+        <v>13.79310015080069</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.36350492546038</v>
+        <v>17.23930778089778</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.20594084479599</v>
+        <v>6.112603153591444</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.781653786420892</v>
+        <v>4.198199662721435</v>
       </c>
       <c r="E25">
-        <v>33.23122728158837</v>
+        <v>17.84034138116694</v>
       </c>
       <c r="F25">
-        <v>26.36026272460398</v>
+        <v>25.17512922582336</v>
       </c>
       <c r="G25">
-        <v>38.143036504474</v>
+        <v>31.30053354251994</v>
       </c>
       <c r="H25">
-        <v>10.68088213996948</v>
+        <v>14.09539113763984</v>
       </c>
       <c r="I25">
-        <v>11.45916955248202</v>
+        <v>18.65010232552279</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.95408384013452</v>
+        <v>12.7039989274611</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.84542453550769</v>
+        <v>17.35819970451882</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.964396016490747</v>
+        <v>6.682675767384784</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.206718196610706</v>
+        <v>2.837416649827874</v>
       </c>
       <c r="E2">
-        <v>16.51181434500207</v>
+        <v>30.10991589466668</v>
       </c>
       <c r="F2">
-        <v>24.86926765575648</v>
+        <v>24.54655759898542</v>
       </c>
       <c r="G2">
-        <v>30.63217645484141</v>
+        <v>35.17626989032686</v>
       </c>
       <c r="H2">
-        <v>14.09805022422436</v>
+        <v>10.28702868384388</v>
       </c>
       <c r="I2">
-        <v>18.78269164326545</v>
+        <v>11.85255036669097</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.98120274892911</v>
+        <v>20.12984385921956</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.45144517107364</v>
+        <v>11.20315609131129</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.863659111749999</v>
+        <v>6.301548952984069</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.212820874785823</v>
+        <v>2.875229585033288</v>
       </c>
       <c r="E3">
-        <v>15.5719435487692</v>
+        <v>27.87987763938947</v>
       </c>
       <c r="F3">
-        <v>24.67859599536554</v>
+        <v>23.31263672013703</v>
       </c>
       <c r="G3">
-        <v>30.19873842431279</v>
+        <v>33.13824967812246</v>
       </c>
       <c r="H3">
-        <v>14.10734566929737</v>
+        <v>10.03930986885471</v>
       </c>
       <c r="I3">
-        <v>18.87901919925398</v>
+        <v>12.13198552835545</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.47004450851071</v>
+        <v>18.81189071289249</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.51823653641463</v>
+        <v>11.44886861396785</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.801872831340034</v>
+        <v>6.054592024897898</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.216732836313295</v>
+        <v>2.898513123595118</v>
       </c>
       <c r="E4">
-        <v>14.97027272857293</v>
+        <v>26.45069136542368</v>
       </c>
       <c r="F4">
-        <v>24.57000606805609</v>
+        <v>22.55421275322151</v>
       </c>
       <c r="G4">
-        <v>29.94318926086584</v>
+        <v>31.87537318802636</v>
       </c>
       <c r="H4">
-        <v>14.11673086142441</v>
+        <v>9.896410475257928</v>
       </c>
       <c r="I4">
-        <v>18.9413650936841</v>
+        <v>12.3097527907281</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.14686325558496</v>
+        <v>17.96162113150537</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.56103399800652</v>
+        <v>11.60177467287225</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.776744075375455</v>
+        <v>5.950728611625583</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.218368799224925</v>
+        <v>2.908026482416525</v>
       </c>
       <c r="E5">
-        <v>14.71917440459052</v>
+        <v>25.85276388053262</v>
       </c>
       <c r="F5">
-        <v>24.52792788309236</v>
+        <v>22.2452648802494</v>
       </c>
       <c r="G5">
-        <v>29.84185166896122</v>
+        <v>31.35829928695152</v>
       </c>
       <c r="H5">
-        <v>14.1214772053647</v>
+        <v>9.840451958050215</v>
       </c>
       <c r="I5">
-        <v>18.96757746869731</v>
+        <v>12.38373576180005</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.01302369953381</v>
+        <v>17.60472055551299</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.5789254519833</v>
+        <v>11.66465410893678</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.772575433372279</v>
+        <v>5.933288298633926</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.218642984868145</v>
+        <v>2.909607937579795</v>
       </c>
       <c r="E6">
-        <v>14.67713155076216</v>
+        <v>25.75252843775606</v>
       </c>
       <c r="F6">
-        <v>24.52107315356945</v>
+        <v>22.19398185015971</v>
       </c>
       <c r="G6">
-        <v>29.82519771984219</v>
+        <v>31.27230813493405</v>
       </c>
       <c r="H6">
-        <v>14.12232090998887</v>
+        <v>9.831296221862127</v>
       </c>
       <c r="I6">
-        <v>18.97197872345448</v>
+        <v>12.39611329318368</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.99067694978259</v>
+        <v>17.5448266586622</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.58192361228029</v>
+        <v>11.67513112488592</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.801533691298077</v>
+        <v>6.05320430677478</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.216754729786631</v>
+        <v>2.898641310985832</v>
       </c>
       <c r="E7">
-        <v>14.96690987275108</v>
+        <v>26.44269092738114</v>
       </c>
       <c r="F7">
-        <v>24.56942973918401</v>
+        <v>22.55004523810623</v>
       </c>
       <c r="G7">
-        <v>29.94181106819096</v>
+        <v>31.86840892924566</v>
       </c>
       <c r="H7">
-        <v>14.11679114434066</v>
+        <v>9.895646645671009</v>
       </c>
       <c r="I7">
-        <v>18.94171533830383</v>
+        <v>12.31074432766547</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.14506662604725</v>
+        <v>17.9568500918122</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.56127345953503</v>
+        <v>11.60262031163619</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.929667712586024</v>
+        <v>6.553964079047497</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.208788380434776</v>
+        <v>2.850445822602133</v>
       </c>
       <c r="E8">
-        <v>16.19299596485927</v>
+        <v>29.35315400831914</v>
       </c>
       <c r="F8">
-        <v>24.80178876902169</v>
+        <v>24.12143311457062</v>
       </c>
       <c r="G8">
-        <v>30.480616359459</v>
+        <v>34.47618235280363</v>
       </c>
       <c r="H8">
-        <v>14.10049030809214</v>
+        <v>10.19968244478537</v>
       </c>
       <c r="I8">
-        <v>18.8152418374671</v>
+        <v>11.94760323106731</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.80700668655098</v>
+        <v>19.68387130081147</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.47410491711418</v>
+        <v>11.28749047005961</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.180048273255006</v>
+        <v>7.432407655798594</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.194459721112154</v>
+        <v>2.756098605301449</v>
       </c>
       <c r="E9">
-        <v>18.48579666097279</v>
+        <v>34.60762167567947</v>
       </c>
       <c r="F9">
-        <v>25.32277469928891</v>
+        <v>27.1866989684777</v>
       </c>
       <c r="G9">
-        <v>31.61471815529229</v>
+        <v>39.48605239056389</v>
       </c>
       <c r="H9">
-        <v>14.09782052512199</v>
+        <v>10.87067188455053</v>
       </c>
       <c r="I9">
-        <v>18.59256814062487</v>
+        <v>11.28561591449962</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.04027989465743</v>
+        <v>22.75010380905558</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.31726956748803</v>
+        <v>10.68285278899184</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.361616370626757</v>
+        <v>8.014000502807319</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.184700796682394</v>
+        <v>2.686438287543196</v>
       </c>
       <c r="E10">
-        <v>20.13690233936268</v>
+        <v>38.22756521142943</v>
       </c>
       <c r="F10">
-        <v>25.74242430399479</v>
+        <v>29.42161207246449</v>
       </c>
       <c r="G10">
-        <v>32.4861849693113</v>
+        <v>43.13877882333186</v>
       </c>
       <c r="H10">
-        <v>14.11384711547207</v>
+        <v>11.41200453281263</v>
       </c>
       <c r="I10">
-        <v>18.44434298452655</v>
+        <v>10.83174807790836</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.06751450193758</v>
+        <v>24.81643600309641</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.21052629457299</v>
+        <v>10.24230319392058</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.44332819885941</v>
+        <v>8.264685976537029</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.18042396008106</v>
+        <v>2.654605284087141</v>
       </c>
       <c r="E11">
-        <v>20.84606385895496</v>
+        <v>39.83150200069369</v>
       </c>
       <c r="F11">
-        <v>25.94064017725295</v>
+        <v>30.48511937797586</v>
       </c>
       <c r="G11">
-        <v>32.88897824281459</v>
+        <v>44.8240317072371</v>
       </c>
       <c r="H11">
-        <v>14.12506089348186</v>
+        <v>11.66955402576106</v>
       </c>
       <c r="I11">
-        <v>18.38023435703142</v>
+        <v>10.63297011491046</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.50923658240671</v>
+        <v>25.71844666194054</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.16378381510475</v>
+        <v>10.0415317172401</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.47411401856504</v>
+        <v>8.357618176650513</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.178827500822298</v>
+        <v>2.642527894992949</v>
       </c>
       <c r="E12">
-        <v>21.10861296275977</v>
+        <v>40.43363949652584</v>
       </c>
       <c r="F12">
-        <v>26.01668819234943</v>
+        <v>30.91404175652766</v>
       </c>
       <c r="G12">
-        <v>33.04225609255004</v>
+        <v>45.45961943003827</v>
       </c>
       <c r="H12">
-        <v>14.12987184832776</v>
+        <v>11.7687902088525</v>
       </c>
       <c r="I12">
-        <v>18.35643446332547</v>
+        <v>10.55887849825199</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.67282427146706</v>
+        <v>26.05479705129677</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.14634289736042</v>
+        <v>9.965341069697665</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.467491164008046</v>
+        <v>8.337692355573495</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.1791703045921</v>
+        <v>2.645129994019241</v>
       </c>
       <c r="E13">
-        <v>21.05233438544342</v>
+        <v>40.30417525675487</v>
       </c>
       <c r="F13">
-        <v>26.00026699218747</v>
+        <v>30.82177674614061</v>
       </c>
       <c r="G13">
-        <v>33.00921427509622</v>
+        <v>45.3228408098383</v>
       </c>
       <c r="H13">
-        <v>14.1288106147066</v>
+        <v>11.74734039492235</v>
       </c>
       <c r="I13">
-        <v>18.3615390080045</v>
+        <v>10.57478149934235</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.63775657752583</v>
+        <v>25.98258599651687</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.15008759810757</v>
+        <v>9.981759262999525</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.445864270637899</v>
+        <v>8.272371578557054</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.180292157353406</v>
+        <v>2.653612129745342</v>
       </c>
       <c r="E14">
-        <v>20.86778387903248</v>
+        <v>39.88113944252084</v>
       </c>
       <c r="F14">
-        <v>25.94687726677566</v>
+        <v>30.52045764061282</v>
       </c>
       <c r="G14">
-        <v>32.90157443760876</v>
+        <v>44.876370707585</v>
       </c>
       <c r="H14">
-        <v>14.12544537914627</v>
+        <v>11.67768346135657</v>
       </c>
       <c r="I14">
-        <v>18.37826677659873</v>
+        <v>10.62685037499051</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.52276886758854</v>
+        <v>25.74622155509241</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.16234374998077</v>
+        <v>10.03526742037586</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.432595919186944</v>
+        <v>8.232100691943373</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.18098232266713</v>
+        <v>2.658804690289532</v>
       </c>
       <c r="E15">
-        <v>20.75396168375334</v>
+        <v>39.62136520146318</v>
       </c>
       <c r="F15">
-        <v>25.91430124604475</v>
+        <v>30.3355599018513</v>
       </c>
       <c r="G15">
-        <v>32.83573456510347</v>
+        <v>44.60257361092082</v>
       </c>
       <c r="H15">
-        <v>14.12345759711354</v>
+        <v>11.63524184013323</v>
       </c>
       <c r="I15">
-        <v>18.38857507144227</v>
+        <v>10.65890048063218</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.45185586143742</v>
+        <v>25.60076924665572</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.16988473589308</v>
+        <v>10.06801795387223</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.356255959641417</v>
+        <v>7.997338128993688</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.184983543987319</v>
+        <v>2.688515487873718</v>
       </c>
       <c r="E16">
-        <v>20.08971614493692</v>
+        <v>38.1219580879331</v>
       </c>
       <c r="F16">
-        <v>25.7296122149674</v>
+        <v>29.35533380863706</v>
       </c>
       <c r="G16">
-        <v>32.45997523355138</v>
+        <v>43.028256577669</v>
       </c>
       <c r="H16">
-        <v>14.11319325941311</v>
+        <v>11.39540700876162</v>
       </c>
       <c r="I16">
-        <v>18.44859937288861</v>
+        <v>10.8448994387964</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.03813176708431</v>
+        <v>24.75674297233628</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.21361741983759</v>
+        <v>10.25540766479924</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.309175910270202</v>
+        <v>7.849761580581616</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.187479587286276</v>
+        <v>2.7067026455876</v>
       </c>
       <c r="E17">
-        <v>19.67150763302406</v>
+        <v>37.19176786704473</v>
       </c>
       <c r="F17">
-        <v>25.61814029591926</v>
+        <v>28.7741146941261</v>
       </c>
       <c r="G17">
-        <v>32.23096926182462</v>
+        <v>42.05738087005809</v>
       </c>
       <c r="H17">
-        <v>14.10790169866105</v>
+        <v>11.25122192463503</v>
       </c>
       <c r="I17">
-        <v>18.48627207313397</v>
+        <v>10.9610210523936</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.77777037675449</v>
+        <v>24.22939309129329</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.24090985337526</v>
+        <v>10.37019815788442</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.282015143371317</v>
+        <v>7.763572436388991</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.188930561607215</v>
+        <v>2.717149821436434</v>
       </c>
       <c r="E18">
-        <v>19.42701597012315</v>
+        <v>36.65265678518732</v>
       </c>
       <c r="F18">
-        <v>25.55471712224052</v>
+        <v>28.43947796520794</v>
       </c>
       <c r="G18">
-        <v>32.09985942380217</v>
+        <v>41.51368169918461</v>
       </c>
       <c r="H18">
-        <v>14.10522741502943</v>
+        <v>11.16934747015157</v>
       </c>
       <c r="I18">
-        <v>18.50825292376232</v>
+        <v>11.02852928782863</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.62561045009793</v>
+        <v>23.9224847315712</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.25677872673184</v>
+        <v>10.43619587774536</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.272805887178967</v>
+        <v>7.734165854906082</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.189424476103628</v>
+        <v>2.720684837967002</v>
       </c>
       <c r="E19">
-        <v>19.34355594212839</v>
+        <v>36.46939489046513</v>
       </c>
       <c r="F19">
-        <v>25.53336397855948</v>
+        <v>28.32611555079773</v>
       </c>
       <c r="G19">
-        <v>32.05557744490047</v>
+        <v>41.33056414635209</v>
       </c>
       <c r="H19">
-        <v>14.1043853521439</v>
+        <v>11.14180551727608</v>
       </c>
       <c r="I19">
-        <v>18.51574895872655</v>
+        <v>11.05150775881759</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.5736785633743</v>
+        <v>23.81794742786443</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.26218107161356</v>
+        <v>10.45854010495675</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.314196322066776</v>
+        <v>7.865606639978657</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.187212296230896</v>
+        <v>2.704768024849428</v>
       </c>
       <c r="E20">
-        <v>19.71643511249298</v>
+        <v>37.29120534916311</v>
       </c>
       <c r="F20">
-        <v>25.62993545470038</v>
+        <v>28.83602041965669</v>
       </c>
       <c r="G20">
-        <v>32.25528558395074</v>
+        <v>42.1609357854983</v>
       </c>
       <c r="H20">
-        <v>14.10842677064631</v>
+        <v>11.26646074044307</v>
       </c>
       <c r="I20">
-        <v>18.48222941180163</v>
+        <v>10.94858489455052</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.80573545485052</v>
+        <v>24.28590038756956</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.23798684261624</v>
+        <v>10.35798203354576</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.452221093551957</v>
+        <v>8.291612059820288</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.179962017695664</v>
+        <v>2.65112134339644</v>
       </c>
       <c r="E21">
-        <v>20.92215325870183</v>
+        <v>40.00552947160313</v>
       </c>
       <c r="F21">
-        <v>25.96253283038164</v>
+        <v>30.60903076463689</v>
       </c>
       <c r="G21">
-        <v>32.93317185397156</v>
+        <v>45.00757579442813</v>
       </c>
       <c r="H21">
-        <v>14.1264185085781</v>
+        <v>11.69809626533668</v>
       </c>
       <c r="I21">
-        <v>18.37334049478319</v>
+        <v>10.61152372379796</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.5566435214455</v>
+        <v>25.81578714022751</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.15873679280742</v>
+        <v>10.01955615714577</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.54150238262696</v>
+        <v>8.55839323445017</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.175357978318597</v>
+        <v>2.615928253774974</v>
       </c>
       <c r="E22">
-        <v>21.67523267020787</v>
+        <v>41.74949887143227</v>
       </c>
       <c r="F22">
-        <v>26.18563201188678</v>
+        <v>31.85294838235964</v>
       </c>
       <c r="G22">
-        <v>33.3804992374948</v>
+        <v>46.85328274755918</v>
       </c>
       <c r="H22">
-        <v>14.14146751236327</v>
+        <v>11.99020534017014</v>
       </c>
       <c r="I22">
-        <v>18.30495328642645</v>
+        <v>10.39817028934729</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.02593894926466</v>
+        <v>26.78536061799115</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.10845379246705</v>
+        <v>9.797362775939368</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.493945365385303</v>
+        <v>8.417071392859711</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.177803032094714</v>
+        <v>2.634723298729877</v>
       </c>
       <c r="E23">
-        <v>21.27648427110521</v>
+        <v>40.82111244411283</v>
       </c>
       <c r="F23">
-        <v>26.06605735741926</v>
+        <v>31.19031161525718</v>
       </c>
       <c r="G23">
-        <v>33.1414137641979</v>
+        <v>45.8693652627695</v>
       </c>
       <c r="H23">
-        <v>14.13313452201195</v>
+        <v>11.83335154486702</v>
       </c>
       <c r="I23">
-        <v>18.3411988658052</v>
+        <v>10.51137609848068</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.77743212570614</v>
+        <v>26.27056410815491</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.1351530128361</v>
+        <v>9.916085032462993</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.311926883872894</v>
+        <v>7.858447279247891</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.187333088731136</v>
+        <v>2.705642694298175</v>
       </c>
       <c r="E24">
-        <v>19.69613604198521</v>
+        <v>37.24626322465721</v>
       </c>
       <c r="F24">
-        <v>25.6246007917314</v>
+        <v>28.80803436458052</v>
       </c>
       <c r="G24">
-        <v>32.24429045273982</v>
+        <v>42.11412562317333</v>
       </c>
       <c r="H24">
-        <v>14.10818823960145</v>
+        <v>11.25956810240898</v>
       </c>
       <c r="I24">
-        <v>18.48405609494242</v>
+        <v>10.9542049559707</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.79310015080069</v>
+        <v>24.26036506802436</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.23930778089778</v>
+        <v>10.36350492546035</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.112603153591444</v>
+        <v>7.205940844795916</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.198199662721435</v>
+        <v>2.781653786420824</v>
       </c>
       <c r="E25">
-        <v>17.84034138116694</v>
+        <v>33.23122728158837</v>
       </c>
       <c r="F25">
-        <v>25.17512922582336</v>
+        <v>26.36026272460398</v>
       </c>
       <c r="G25">
-        <v>31.30053354251994</v>
+        <v>38.14303650447399</v>
       </c>
       <c r="H25">
-        <v>14.09539113763984</v>
+        <v>10.68088213996949</v>
       </c>
       <c r="I25">
-        <v>18.65010232552279</v>
+        <v>11.45916955248205</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.7039989274611</v>
+        <v>21.95408384013452</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.35819970451882</v>
+        <v>10.84542453550769</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.682675767384784</v>
+        <v>12.52895399879886</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.837416649827874</v>
+        <v>4.858839424753461</v>
       </c>
       <c r="E2">
-        <v>30.10991589466668</v>
+        <v>12.05430842331885</v>
       </c>
       <c r="F2">
-        <v>24.54655759898542</v>
+        <v>15.92508216878145</v>
       </c>
       <c r="G2">
-        <v>35.17626989032686</v>
+        <v>18.98714489237624</v>
       </c>
       <c r="H2">
-        <v>10.28702868384388</v>
+        <v>2.331690902705148</v>
       </c>
       <c r="I2">
-        <v>11.85255036669097</v>
+        <v>3.733884146631424</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.876985865799292</v>
       </c>
       <c r="K2">
-        <v>20.12984385921956</v>
+        <v>15.95345362698962</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.61303767414397</v>
       </c>
       <c r="N2">
-        <v>11.20315609131129</v>
+        <v>6.988978610384806</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.64288592290449</v>
+      </c>
+      <c r="Q2">
+        <v>12.53113153607941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.301548952984069</v>
+        <v>11.85679327792479</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.875229585033288</v>
+        <v>4.635841287341677</v>
       </c>
       <c r="E3">
-        <v>27.87987763938947</v>
+        <v>11.91970446284834</v>
       </c>
       <c r="F3">
-        <v>23.31263672013703</v>
+        <v>15.51465889282572</v>
       </c>
       <c r="G3">
-        <v>33.13824967812246</v>
+        <v>18.43940158445137</v>
       </c>
       <c r="H3">
-        <v>10.03930986885471</v>
+        <v>2.485547766210457</v>
       </c>
       <c r="I3">
-        <v>12.13198552835545</v>
+        <v>3.837370912694679</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.880453753902001</v>
       </c>
       <c r="K3">
-        <v>18.81189071289249</v>
+        <v>16.0526108827577</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.97092450508103</v>
       </c>
       <c r="N3">
-        <v>11.44886861396785</v>
+        <v>6.662942132982855</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.74976286910725</v>
+      </c>
+      <c r="Q3">
+        <v>12.42343231727155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.054592024897898</v>
+        <v>11.41995491658143</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.898513123595118</v>
+        <v>4.492921168247243</v>
       </c>
       <c r="E4">
-        <v>26.45069136542368</v>
+        <v>11.83350808714461</v>
       </c>
       <c r="F4">
-        <v>22.55421275322151</v>
+        <v>15.26614919375578</v>
       </c>
       <c r="G4">
-        <v>31.87537318802636</v>
+        <v>18.10705548286404</v>
       </c>
       <c r="H4">
-        <v>9.896410475257928</v>
+        <v>2.583776736298155</v>
       </c>
       <c r="I4">
-        <v>12.3097527907281</v>
+        <v>3.904144522979602</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.88570865761513</v>
       </c>
       <c r="K4">
-        <v>17.96162113150537</v>
+        <v>16.11523824241199</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.55986235523553</v>
       </c>
       <c r="N4">
-        <v>11.60177467287225</v>
+        <v>6.455649336801983</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.81726748459761</v>
+      </c>
+      <c r="Q4">
+        <v>12.36328684135117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.950728611625583</v>
+        <v>11.22567170758635</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.908026482416525</v>
+        <v>4.434038052683599</v>
       </c>
       <c r="E5">
-        <v>25.85276388053262</v>
+        <v>11.79363292494535</v>
       </c>
       <c r="F5">
-        <v>22.2452648802494</v>
+        <v>15.16178988746928</v>
       </c>
       <c r="G5">
-        <v>31.35829928695152</v>
+        <v>17.96531382681576</v>
       </c>
       <c r="H5">
-        <v>9.840451958050215</v>
+        <v>2.625100225976339</v>
       </c>
       <c r="I5">
-        <v>12.38373576180005</v>
+        <v>3.934768850297131</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.887464464825146</v>
       </c>
       <c r="K5">
-        <v>17.60472055551299</v>
+        <v>16.1362711903397</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.39155499659261</v>
       </c>
       <c r="N5">
-        <v>11.66465410893678</v>
+        <v>6.371938643920094</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.84531699906949</v>
+      </c>
+      <c r="Q5">
+        <v>12.3372756671963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.933288298633926</v>
+        <v>11.18042244967847</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.909607937579795</v>
+        <v>4.425188362510061</v>
       </c>
       <c r="E6">
-        <v>25.75252843775606</v>
+        <v>11.78225604376331</v>
       </c>
       <c r="F6">
-        <v>22.19398185015971</v>
+        <v>15.13950807673293</v>
       </c>
       <c r="G6">
-        <v>31.27230813493405</v>
+        <v>17.93269216432377</v>
       </c>
       <c r="H6">
-        <v>9.831296221862127</v>
+        <v>2.632433872174854</v>
       </c>
       <c r="I6">
-        <v>12.39611329318368</v>
+        <v>3.943216938296716</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.886391087771215</v>
       </c>
       <c r="K6">
-        <v>17.5448266586622</v>
+        <v>16.13378108974429</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.36741833103527</v>
       </c>
       <c r="N6">
-        <v>11.67513112488592</v>
+        <v>6.36095389085508</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.8500939794923</v>
+      </c>
+      <c r="Q6">
+        <v>12.32938923680258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.05320430677478</v>
+        <v>11.38352295024103</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.898641310985832</v>
+        <v>4.494870289836489</v>
       </c>
       <c r="E7">
-        <v>26.44269092738114</v>
+        <v>11.82022971327835</v>
       </c>
       <c r="F7">
-        <v>22.55004523810623</v>
+        <v>15.25116649327377</v>
       </c>
       <c r="G7">
-        <v>31.86840892924566</v>
+        <v>18.08038289355887</v>
       </c>
       <c r="H7">
-        <v>9.895646645671009</v>
+        <v>2.585437942609864</v>
       </c>
       <c r="I7">
-        <v>12.31074432766547</v>
+        <v>3.913301194219331</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.881888526253543</v>
       </c>
       <c r="K7">
-        <v>17.9568500918122</v>
+        <v>16.09913934479108</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.56853028976646</v>
       </c>
       <c r="N7">
-        <v>11.60262031163619</v>
+        <v>6.462626025396394</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.81796521497928</v>
+      </c>
+      <c r="Q7">
+        <v>12.35299100485135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.553964079047497</v>
+        <v>12.2604027681025</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.850445822602133</v>
+        <v>4.786673173486627</v>
       </c>
       <c r="E8">
-        <v>29.35315400831914</v>
+        <v>11.99227471060775</v>
       </c>
       <c r="F8">
-        <v>24.12143311457062</v>
+        <v>15.76560470375871</v>
       </c>
       <c r="G8">
-        <v>34.47618235280363</v>
+        <v>18.76608851611281</v>
       </c>
       <c r="H8">
-        <v>10.19968244478537</v>
+        <v>2.385332551034009</v>
       </c>
       <c r="I8">
-        <v>11.94760323106731</v>
+        <v>3.779886621199458</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.87249482855817</v>
       </c>
       <c r="K8">
-        <v>19.68387130081147</v>
+        <v>15.96579700078186</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.40894980165662</v>
       </c>
       <c r="N8">
-        <v>11.28749047005961</v>
+        <v>6.888204357763692</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.68010007103078</v>
+      </c>
+      <c r="Q8">
+        <v>12.47982795234004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.432407655798594</v>
+        <v>13.83906720491553</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.756098605301449</v>
+        <v>5.305414895300501</v>
       </c>
       <c r="E9">
-        <v>34.60762167567947</v>
+        <v>12.32340308872431</v>
       </c>
       <c r="F9">
-        <v>27.1866989684777</v>
+        <v>16.81948925233867</v>
       </c>
       <c r="G9">
-        <v>39.48605239056389</v>
+        <v>20.17645907955254</v>
       </c>
       <c r="H9">
-        <v>10.87067188455053</v>
+        <v>2.020536149976889</v>
       </c>
       <c r="I9">
-        <v>11.28561591449962</v>
+        <v>3.529481735064604</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.886474662542034</v>
       </c>
       <c r="K9">
-        <v>22.75010380905558</v>
+        <v>15.74716700305361</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.90135846268218</v>
       </c>
       <c r="N9">
-        <v>10.68285278899184</v>
+        <v>7.649894108059212</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.42355451903516</v>
+      </c>
+      <c r="Q9">
+        <v>12.79399828974583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.014000502807319</v>
+        <v>14.76290386494115</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.686438287543196</v>
+        <v>5.669993303665395</v>
       </c>
       <c r="E10">
-        <v>38.22756521142943</v>
+        <v>12.44481852510663</v>
       </c>
       <c r="F10">
-        <v>29.42161207246449</v>
+        <v>17.52841630544978</v>
       </c>
       <c r="G10">
-        <v>43.13877882333186</v>
+        <v>21.08873485167786</v>
       </c>
       <c r="H10">
-        <v>11.41200453281263</v>
+        <v>1.802676667967569</v>
       </c>
       <c r="I10">
-        <v>10.83174807790836</v>
+        <v>3.371657755379742</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.891594532801337</v>
       </c>
       <c r="K10">
-        <v>24.81643600309641</v>
+        <v>15.52531534756303</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.94040504060662</v>
       </c>
       <c r="N10">
-        <v>10.24230319392058</v>
+        <v>8.044201012795495</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.25109785655622</v>
+      </c>
+      <c r="Q10">
+        <v>12.99923175798485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.264685976537029</v>
+        <v>14.27161353951131</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.654605284087141</v>
+        <v>5.948810360570096</v>
       </c>
       <c r="E11">
-        <v>39.83150200069369</v>
+        <v>11.90740684262167</v>
       </c>
       <c r="F11">
-        <v>30.48511937797586</v>
+        <v>17.26618539678704</v>
       </c>
       <c r="G11">
-        <v>44.8240317072371</v>
+        <v>20.45277690455416</v>
       </c>
       <c r="H11">
-        <v>11.66955402576106</v>
+        <v>2.821287860947757</v>
       </c>
       <c r="I11">
-        <v>10.63297011491046</v>
+        <v>3.366687932023853</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.716167016893823</v>
       </c>
       <c r="K11">
-        <v>25.71844666194054</v>
+        <v>14.90595946485748</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.63301323414021</v>
       </c>
       <c r="N11">
-        <v>10.0415317172401</v>
+        <v>7.125365952761811</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.25140697431927</v>
+      </c>
+      <c r="Q11">
+        <v>12.64117200800033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.357618176650513</v>
+        <v>13.70088225131372</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.642527894992949</v>
+        <v>6.107714309823584</v>
       </c>
       <c r="E12">
-        <v>40.43363949652584</v>
+        <v>11.839123772209</v>
       </c>
       <c r="F12">
-        <v>30.91404175652766</v>
+        <v>16.90239412070155</v>
       </c>
       <c r="G12">
-        <v>45.45961943003827</v>
+        <v>19.73866882445037</v>
       </c>
       <c r="H12">
-        <v>11.7687902088525</v>
+        <v>4.199102928757773</v>
       </c>
       <c r="I12">
-        <v>10.55887849825199</v>
+        <v>3.37524072176424</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.568024155000062</v>
       </c>
       <c r="K12">
-        <v>26.05479705129677</v>
+        <v>14.50576649577182</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.9952118398443</v>
       </c>
       <c r="N12">
-        <v>9.965341069697665</v>
+        <v>6.260161549539236</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.30736796699111</v>
+      </c>
+      <c r="Q12">
+        <v>12.29931082531363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.337692355573495</v>
+        <v>12.97676971745818</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.645129994019241</v>
+        <v>6.191260404128099</v>
       </c>
       <c r="E13">
-        <v>40.30417525675487</v>
+        <v>12.10315406158278</v>
       </c>
       <c r="F13">
-        <v>30.82177674614061</v>
+        <v>16.40876162508592</v>
       </c>
       <c r="G13">
-        <v>45.3228408098383</v>
+        <v>18.86642882467462</v>
       </c>
       <c r="H13">
-        <v>11.74734039492235</v>
+        <v>5.617050427480096</v>
       </c>
       <c r="I13">
-        <v>10.57478149934235</v>
+        <v>3.408820879286952</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.425208650797316</v>
       </c>
       <c r="K13">
-        <v>25.98258599651687</v>
+        <v>14.22988679138257</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.14778308645022</v>
       </c>
       <c r="N13">
-        <v>9.981759262999525</v>
+        <v>5.380403330121481</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.40565645225439</v>
+      </c>
+      <c r="Q13">
+        <v>11.9297732346346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.272371578557054</v>
+        <v>12.38280013941539</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.653612129745342</v>
+        <v>6.217325559701179</v>
       </c>
       <c r="E14">
-        <v>39.88113944252084</v>
+        <v>12.47622045198655</v>
       </c>
       <c r="F14">
-        <v>30.52045764061282</v>
+        <v>15.99628256659446</v>
       </c>
       <c r="G14">
-        <v>44.876370707585</v>
+        <v>18.16907337275548</v>
       </c>
       <c r="H14">
-        <v>11.67768346135657</v>
+        <v>6.621696740811108</v>
       </c>
       <c r="I14">
-        <v>10.62685037499051</v>
+        <v>3.446073723830111</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.326838694477879</v>
       </c>
       <c r="K14">
-        <v>25.74622155509241</v>
+        <v>14.10118517858439</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>17.1644049181334</v>
       </c>
       <c r="N14">
-        <v>10.03526742037586</v>
+        <v>4.806223228334066</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.49474759742741</v>
+      </c>
+      <c r="Q14">
+        <v>11.65508920866024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.232100691943373</v>
+        <v>12.19344954208292</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.658804690289532</v>
+        <v>6.208410217547648</v>
       </c>
       <c r="E15">
-        <v>39.62136520146318</v>
+        <v>12.5851161908534</v>
       </c>
       <c r="F15">
-        <v>30.3355599018513</v>
+        <v>15.86400195433383</v>
       </c>
       <c r="G15">
-        <v>44.60257361092082</v>
+        <v>17.9576448790655</v>
       </c>
       <c r="H15">
-        <v>11.63524184013323</v>
+        <v>6.855189916110015</v>
       </c>
       <c r="I15">
-        <v>10.65890048063218</v>
+        <v>3.465106045061032</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.303384987389398</v>
       </c>
       <c r="K15">
-        <v>25.60076924665572</v>
+        <v>14.08724833615455</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>17.12692913836188</v>
       </c>
       <c r="N15">
-        <v>10.06801795387223</v>
+        <v>4.675893523479574</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.52344772376088</v>
+      </c>
+      <c r="Q15">
+        <v>11.58017153056412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.997338128993688</v>
+        <v>11.88843535617899</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.688515487873718</v>
+        <v>6.048223435733475</v>
       </c>
       <c r="E16">
-        <v>38.1219580879331</v>
+        <v>12.46069224365893</v>
       </c>
       <c r="F16">
-        <v>29.35533380863706</v>
+        <v>15.6253149276606</v>
       </c>
       <c r="G16">
-        <v>43.028256577669</v>
+        <v>17.67705653332936</v>
       </c>
       <c r="H16">
-        <v>11.39540700876162</v>
+        <v>6.650691117839841</v>
       </c>
       <c r="I16">
-        <v>10.8448994387964</v>
+        <v>3.53196489516285</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.325537138494706</v>
       </c>
       <c r="K16">
-        <v>24.75674297233628</v>
+        <v>14.23187942304613</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>16.68421343513681</v>
       </c>
       <c r="N16">
-        <v>10.25540766479924</v>
+        <v>4.598667422590339</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.5644787467975</v>
+      </c>
+      <c r="Q16">
+        <v>11.54978424843494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.849761580581616</v>
+        <v>11.98069228662708</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.7067026455876</v>
+        <v>5.90848813179203</v>
       </c>
       <c r="E17">
-        <v>37.19176786704473</v>
+        <v>12.13362926418776</v>
       </c>
       <c r="F17">
-        <v>28.7741146941261</v>
+        <v>15.66973351602477</v>
       </c>
       <c r="G17">
-        <v>42.05738087005809</v>
+        <v>17.84790465948967</v>
       </c>
       <c r="H17">
-        <v>11.25122192463503</v>
+        <v>5.92796242687942</v>
       </c>
       <c r="I17">
-        <v>10.9610210523936</v>
+        <v>3.564156953621544</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.395518023046469</v>
       </c>
       <c r="K17">
-        <v>24.22939309129329</v>
+        <v>14.40462429273949</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16.328959048702</v>
       </c>
       <c r="N17">
-        <v>10.37019815788442</v>
+        <v>4.886947578732786</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.55006546215164</v>
+      </c>
+      <c r="Q17">
+        <v>11.67581815758286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.763572436388991</v>
+        <v>12.45255022581935</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.717149821436434</v>
+        <v>5.770591711248629</v>
       </c>
       <c r="E18">
-        <v>36.65265678518732</v>
+        <v>11.76943471796944</v>
       </c>
       <c r="F18">
-        <v>28.43947796520794</v>
+        <v>15.96816083507773</v>
       </c>
       <c r="G18">
-        <v>41.51368169918461</v>
+        <v>18.43738025714256</v>
       </c>
       <c r="H18">
-        <v>11.16934747015157</v>
+        <v>4.706367195363118</v>
       </c>
       <c r="I18">
-        <v>11.02852928782863</v>
+        <v>3.558360608760819</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.515618985796785</v>
       </c>
       <c r="K18">
-        <v>23.9224847315712</v>
+        <v>14.65948607980941</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.00663935705782</v>
       </c>
       <c r="N18">
-        <v>10.43619587774536</v>
+        <v>5.542081865710646</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.49273624014574</v>
+      </c>
+      <c r="Q18">
+        <v>11.95370964232338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.734165854906082</v>
+        <v>13.1353113536228</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.720684837967002</v>
+        <v>5.651245682967213</v>
       </c>
       <c r="E19">
-        <v>36.46939489046513</v>
+        <v>11.69990672136596</v>
       </c>
       <c r="F19">
-        <v>28.32611555079773</v>
+        <v>16.41817458118001</v>
       </c>
       <c r="G19">
-        <v>41.33056414635209</v>
+        <v>19.26602938173799</v>
       </c>
       <c r="H19">
-        <v>11.14180551727608</v>
+        <v>3.282215123099687</v>
       </c>
       <c r="I19">
-        <v>11.05150775881759</v>
+        <v>3.536550080152075</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.659391858243239</v>
       </c>
       <c r="K19">
-        <v>23.81794742786443</v>
+        <v>14.98960146843179</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.75857015902096</v>
       </c>
       <c r="N19">
-        <v>10.45854010495675</v>
+        <v>6.453014569492178</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.42279478602019</v>
+      </c>
+      <c r="Q19">
+        <v>12.31247933667524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.865606639978657</v>
+        <v>14.43932628041678</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.704768024849428</v>
+        <v>5.584366091646716</v>
       </c>
       <c r="E20">
-        <v>37.29120534916311</v>
+        <v>12.37500260071051</v>
       </c>
       <c r="F20">
-        <v>28.83602041965669</v>
+        <v>17.30211442711706</v>
       </c>
       <c r="G20">
-        <v>42.1609357854983</v>
+        <v>20.77707415944537</v>
       </c>
       <c r="H20">
-        <v>11.26646074044307</v>
+        <v>1.860922557134319</v>
       </c>
       <c r="I20">
-        <v>10.94858489455052</v>
+        <v>3.440304385503828</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.876696884249851</v>
       </c>
       <c r="K20">
-        <v>24.28590038756956</v>
+        <v>15.53143193821285</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.70372217891905</v>
       </c>
       <c r="N20">
-        <v>10.35798203354576</v>
+        <v>7.957335405649046</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.29953522055474</v>
+      </c>
+      <c r="Q20">
+        <v>12.91216001882887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.291612059820288</v>
+        <v>15.28405923731822</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.65112134339644</v>
+        <v>5.831161101701851</v>
       </c>
       <c r="E21">
-        <v>40.00552947160313</v>
+        <v>12.62419661455163</v>
       </c>
       <c r="F21">
-        <v>30.60903076463689</v>
+        <v>17.95695164818811</v>
       </c>
       <c r="G21">
-        <v>45.00757579442813</v>
+        <v>21.67625766733428</v>
       </c>
       <c r="H21">
-        <v>11.69809626533668</v>
+        <v>1.650115299687957</v>
       </c>
       <c r="I21">
-        <v>10.61152372379796</v>
+        <v>3.308895516748593</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.919917988788337</v>
       </c>
       <c r="K21">
-        <v>25.81578714022751</v>
+        <v>15.47011778284826</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.42442253578932</v>
       </c>
       <c r="N21">
-        <v>10.01955615714577</v>
+        <v>8.442137109471114</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.16024739497695</v>
+      </c>
+      <c r="Q21">
+        <v>13.16489500483278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.55839323445017</v>
+        <v>15.7938499003913</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.615928253774974</v>
+        <v>5.99069369349746</v>
       </c>
       <c r="E22">
-        <v>41.74949887143227</v>
+        <v>12.74797863314813</v>
       </c>
       <c r="F22">
-        <v>31.85294838235964</v>
+        <v>18.36475269367354</v>
       </c>
       <c r="G22">
-        <v>46.85328274755918</v>
+        <v>22.22713983991334</v>
       </c>
       <c r="H22">
-        <v>11.99020534017014</v>
+        <v>1.590866105163298</v>
       </c>
       <c r="I22">
-        <v>10.39817028934729</v>
+        <v>3.217359835963237</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.945985906644566</v>
       </c>
       <c r="K22">
-        <v>26.78536061799115</v>
+        <v>15.42084822537544</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.8810811760017</v>
       </c>
       <c r="N22">
-        <v>9.797362775939368</v>
+        <v>8.676528084425872</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.07231701018343</v>
+      </c>
+      <c r="Q22">
+        <v>13.32104014435849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.417071392859711</v>
+        <v>15.55393744123939</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.634723298729877</v>
+        <v>5.90347594578565</v>
       </c>
       <c r="E23">
-        <v>40.82111244411283</v>
+        <v>12.6952124160628</v>
       </c>
       <c r="F23">
-        <v>31.19031161525718</v>
+        <v>18.16053664647055</v>
       </c>
       <c r="G23">
-        <v>45.8693652627695</v>
+        <v>21.95718588213005</v>
       </c>
       <c r="H23">
-        <v>11.83335154486702</v>
+        <v>1.592634115074044</v>
       </c>
       <c r="I23">
-        <v>10.51137609848068</v>
+        <v>3.255113742383545</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.936055860071908</v>
       </c>
       <c r="K23">
-        <v>26.27056410815491</v>
+        <v>15.46561525789176</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.62856617778104</v>
       </c>
       <c r="N23">
-        <v>9.916085032462993</v>
+        <v>8.544719084724404</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.11754507380471</v>
+      </c>
+      <c r="Q23">
+        <v>13.24782924155073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.858447279247891</v>
+        <v>14.55318550235897</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.705642694298175</v>
+        <v>5.5652298642463</v>
       </c>
       <c r="E24">
-        <v>37.24626322465721</v>
+        <v>12.46938758221674</v>
       </c>
       <c r="F24">
-        <v>28.80803436458052</v>
+        <v>17.36518039804582</v>
       </c>
       <c r="G24">
-        <v>42.11412562317333</v>
+        <v>20.89532113294429</v>
       </c>
       <c r="H24">
-        <v>11.25956810240898</v>
+        <v>1.839110649321567</v>
       </c>
       <c r="I24">
-        <v>10.9542049559707</v>
+        <v>3.420583509235222</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.898654945448129</v>
       </c>
       <c r="K24">
-        <v>24.26036506802436</v>
+        <v>15.60965865034996</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.65415862742757</v>
       </c>
       <c r="N24">
-        <v>10.36350492546035</v>
+        <v>8.040917462067924</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.29480413240582</v>
+      </c>
+      <c r="Q24">
+        <v>12.96538814236844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.205940844795916</v>
+        <v>13.38118675420706</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.781653786420824</v>
+        <v>5.174903529461274</v>
       </c>
       <c r="E25">
-        <v>33.23122728158837</v>
+        <v>12.21548505029674</v>
       </c>
       <c r="F25">
-        <v>26.36026272460398</v>
+        <v>16.51041084511154</v>
       </c>
       <c r="G25">
-        <v>38.14303650447399</v>
+        <v>19.75292198769017</v>
       </c>
       <c r="H25">
-        <v>10.68088213996949</v>
+        <v>2.117839687218973</v>
       </c>
       <c r="I25">
-        <v>11.45916955248205</v>
+        <v>3.6099675960069</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.873067396538317</v>
       </c>
       <c r="K25">
-        <v>21.95408384013452</v>
+        <v>15.77586636796993</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.53039859340701</v>
       </c>
       <c r="N25">
-        <v>10.84542453550769</v>
+        <v>7.46339417574839</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.4929553673526</v>
+      </c>
+      <c r="Q25">
+        <v>12.68662136585694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.52895399879886</v>
+        <v>11.93466701076667</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.858839424753461</v>
+        <v>4.888014961689984</v>
       </c>
       <c r="E2">
-        <v>12.05430842331885</v>
+        <v>11.44830796801822</v>
       </c>
       <c r="F2">
-        <v>15.92508216878145</v>
+        <v>15.78033629560241</v>
       </c>
       <c r="G2">
-        <v>18.98714489237624</v>
+        <v>18.02467886125937</v>
       </c>
       <c r="H2">
-        <v>2.331690902705148</v>
+        <v>2.171029103736373</v>
       </c>
       <c r="I2">
-        <v>3.733884146631424</v>
+        <v>3.495028338706429</v>
       </c>
       <c r="J2">
-        <v>7.876985865799292</v>
+        <v>8.452735078647727</v>
       </c>
       <c r="K2">
-        <v>15.95345362698962</v>
+        <v>15.20792488056665</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.12596409370676</v>
       </c>
       <c r="M2">
-        <v>13.61303767414397</v>
+        <v>10.30919058788206</v>
       </c>
       <c r="N2">
-        <v>6.988978610384806</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.60622027163963</v>
       </c>
       <c r="P2">
-        <v>12.64288592290449</v>
+        <v>7.21925742233238</v>
       </c>
       <c r="Q2">
-        <v>12.53113153607941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.50363556988629</v>
+      </c>
+      <c r="S2">
+        <v>12.42303043560881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.85679327792479</v>
+        <v>11.31157163975979</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.635841287341677</v>
+        <v>4.656411216618657</v>
       </c>
       <c r="E3">
-        <v>11.91970446284834</v>
+        <v>11.33584767413287</v>
       </c>
       <c r="F3">
-        <v>15.51465889282572</v>
+        <v>15.39571659574371</v>
       </c>
       <c r="G3">
-        <v>18.43940158445137</v>
+        <v>17.50019975570173</v>
       </c>
       <c r="H3">
-        <v>2.485547766210457</v>
+        <v>2.314832786216538</v>
       </c>
       <c r="I3">
-        <v>3.837370912694679</v>
+        <v>3.584439549489013</v>
       </c>
       <c r="J3">
-        <v>7.880453753902001</v>
+        <v>8.438232112744018</v>
       </c>
       <c r="K3">
-        <v>16.0526108827577</v>
+        <v>15.32486593511891</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.27741846534133</v>
       </c>
       <c r="M3">
-        <v>12.97092450508103</v>
+        <v>10.37933753323853</v>
       </c>
       <c r="N3">
-        <v>6.662942132982855</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.93383724729325</v>
       </c>
       <c r="P3">
-        <v>12.74976286910725</v>
+        <v>6.88752661712672</v>
       </c>
       <c r="Q3">
-        <v>12.42343231727155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.59849295586656</v>
+      </c>
+      <c r="S3">
+        <v>12.33273816177629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.41995491658143</v>
+        <v>10.90487195371861</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.492921168247243</v>
+        <v>4.507949858308849</v>
       </c>
       <c r="E4">
-        <v>11.83350808714461</v>
+        <v>11.26344425717287</v>
       </c>
       <c r="F4">
-        <v>15.26614919375578</v>
+        <v>15.16276865108129</v>
       </c>
       <c r="G4">
-        <v>18.10705548286404</v>
+        <v>17.18417563125377</v>
       </c>
       <c r="H4">
-        <v>2.583776736298155</v>
+        <v>2.406666170744931</v>
       </c>
       <c r="I4">
-        <v>3.904144522979602</v>
+        <v>3.642440958366234</v>
       </c>
       <c r="J4">
-        <v>7.88570865761513</v>
+        <v>8.430805627338948</v>
       </c>
       <c r="K4">
-        <v>16.11523824241199</v>
+        <v>15.3977157086815</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.37398518726241</v>
       </c>
       <c r="M4">
-        <v>12.55986235523553</v>
+        <v>10.43418755755623</v>
       </c>
       <c r="N4">
-        <v>6.455649336801983</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.50321113141755</v>
       </c>
       <c r="P4">
-        <v>12.81726748459761</v>
+        <v>6.677216278872784</v>
       </c>
       <c r="Q4">
-        <v>12.36328684135117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.65896128087257</v>
+      </c>
+      <c r="S4">
+        <v>12.28275529881521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.22567170758635</v>
+        <v>10.7230870330883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.434038052683599</v>
+        <v>4.446711027384244</v>
       </c>
       <c r="E5">
-        <v>11.79363292494535</v>
+        <v>11.22950819899066</v>
       </c>
       <c r="F5">
-        <v>15.16178988746928</v>
+        <v>15.06485494890292</v>
       </c>
       <c r="G5">
-        <v>17.96531382681576</v>
+        <v>17.04972168540897</v>
       </c>
       <c r="H5">
-        <v>2.625100225976339</v>
+        <v>2.445310233684969</v>
       </c>
       <c r="I5">
-        <v>3.934768850297131</v>
+        <v>3.669896546081571</v>
       </c>
       <c r="J5">
-        <v>7.887464464825146</v>
+        <v>8.427076699254531</v>
       </c>
       <c r="K5">
-        <v>16.1362711903397</v>
+        <v>15.42308543108005</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.40924588072937</v>
       </c>
       <c r="M5">
-        <v>12.39155499659261</v>
+        <v>10.45757349583621</v>
       </c>
       <c r="N5">
-        <v>6.371938643920094</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.32661293965378</v>
       </c>
       <c r="P5">
-        <v>12.84531699906949</v>
+        <v>6.59224526847189</v>
       </c>
       <c r="Q5">
-        <v>12.3372756671963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.68429499939754</v>
+      </c>
+      <c r="S5">
+        <v>12.26089654737433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.18042244967847</v>
+        <v>10.68023730507055</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.425188362510061</v>
+        <v>4.437421979638811</v>
       </c>
       <c r="E6">
-        <v>11.78225604376331</v>
+        <v>11.21946187784612</v>
       </c>
       <c r="F6">
-        <v>15.13950807673293</v>
+        <v>15.04387867773188</v>
       </c>
       <c r="G6">
-        <v>17.93269216432377</v>
+        <v>17.01852425985271</v>
       </c>
       <c r="H6">
-        <v>2.632433872174854</v>
+        <v>2.452175580740227</v>
       </c>
       <c r="I6">
-        <v>3.943216938296716</v>
+        <v>3.678396204630644</v>
       </c>
       <c r="J6">
-        <v>7.886391087771215</v>
+        <v>8.42517133329526</v>
       </c>
       <c r="K6">
-        <v>16.13378108974429</v>
+        <v>15.42172698171307</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.40908745054973</v>
       </c>
       <c r="M6">
-        <v>12.36741833103527</v>
+        <v>10.45929304458572</v>
       </c>
       <c r="N6">
-        <v>6.36095389085508</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.30097830467515</v>
       </c>
       <c r="P6">
-        <v>12.8500939794923</v>
+        <v>6.580855807861728</v>
       </c>
       <c r="Q6">
-        <v>12.32938923680258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.68871063124596</v>
+      </c>
+      <c r="S6">
+        <v>12.25387430080966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.38352295024103</v>
+        <v>10.87052723968135</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.494870289836489</v>
+        <v>4.512731974693837</v>
       </c>
       <c r="E7">
-        <v>11.82022971327835</v>
+        <v>11.25244108705293</v>
       </c>
       <c r="F7">
-        <v>15.25116649327377</v>
+        <v>15.13540577847679</v>
       </c>
       <c r="G7">
-        <v>18.08038289355887</v>
+        <v>17.25308507712514</v>
       </c>
       <c r="H7">
-        <v>2.585437942609864</v>
+        <v>2.408532553842574</v>
       </c>
       <c r="I7">
-        <v>3.913301194219331</v>
+        <v>3.65326873773037</v>
       </c>
       <c r="J7">
-        <v>7.881888526253543</v>
+        <v>8.390827419680701</v>
       </c>
       <c r="K7">
-        <v>16.09913934479108</v>
+        <v>15.38059607601874</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.35606226159535</v>
       </c>
       <c r="M7">
-        <v>12.56853028976646</v>
+        <v>10.42653559746298</v>
       </c>
       <c r="N7">
-        <v>6.462626025396394</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.50587058292143</v>
       </c>
       <c r="P7">
-        <v>12.81796521497928</v>
+        <v>6.681986413282257</v>
       </c>
       <c r="Q7">
-        <v>12.35299100485135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.66017313696025</v>
+      </c>
+      <c r="S7">
+        <v>12.2637055954441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.2604027681025</v>
+        <v>11.68739185306128</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.786673173486627</v>
+        <v>4.822214347478228</v>
       </c>
       <c r="E8">
-        <v>11.99227471060775</v>
+        <v>11.39938642863196</v>
       </c>
       <c r="F8">
-        <v>15.76560470375871</v>
+        <v>15.58827767831987</v>
       </c>
       <c r="G8">
-        <v>18.76608851611281</v>
+        <v>18.11732446604918</v>
       </c>
       <c r="H8">
-        <v>2.385332551034009</v>
+        <v>2.222091233684695</v>
       </c>
       <c r="I8">
-        <v>3.779886621199458</v>
+        <v>3.53873353355277</v>
       </c>
       <c r="J8">
-        <v>7.87249482855817</v>
+        <v>8.323992810400451</v>
       </c>
       <c r="K8">
-        <v>15.96579700078186</v>
+        <v>15.22106800850791</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.15170956047077</v>
       </c>
       <c r="M8">
-        <v>13.40894980165662</v>
+        <v>10.31561974091537</v>
       </c>
       <c r="N8">
-        <v>6.888204357763692</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.37393109219268</v>
       </c>
       <c r="P8">
-        <v>12.68010007103078</v>
+        <v>7.110599459406468</v>
       </c>
       <c r="Q8">
-        <v>12.47982795234004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.53831128522277</v>
+      </c>
+      <c r="S8">
+        <v>12.34785470561928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.83906720491553</v>
+        <v>13.14487899347376</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.305414895300501</v>
+        <v>5.362630526553612</v>
       </c>
       <c r="E9">
-        <v>12.32340308872431</v>
+        <v>11.67654173890143</v>
       </c>
       <c r="F9">
-        <v>16.81948925233867</v>
+        <v>16.56762087346641</v>
       </c>
       <c r="G9">
-        <v>20.17645907955254</v>
+        <v>19.53921204492122</v>
       </c>
       <c r="H9">
-        <v>2.020536149976889</v>
+        <v>1.881391373642353</v>
       </c>
       <c r="I9">
-        <v>3.529481735064604</v>
+        <v>3.321220580566098</v>
       </c>
       <c r="J9">
-        <v>7.886474662542034</v>
+        <v>8.34067007794447</v>
       </c>
       <c r="K9">
-        <v>15.74716700305361</v>
+        <v>14.95094632361604</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.81263798577636</v>
       </c>
       <c r="M9">
-        <v>14.90135846268218</v>
+        <v>10.21164888778844</v>
       </c>
       <c r="N9">
-        <v>7.649894108059212</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.93342273792416</v>
       </c>
       <c r="P9">
-        <v>12.42355451903516</v>
+        <v>7.888320173227051</v>
       </c>
       <c r="Q9">
-        <v>12.79399828974583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.31442620882678</v>
+      </c>
+      <c r="S9">
+        <v>12.60775415082763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.76290386494115</v>
+        <v>14.00178285248109</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.669993303665395</v>
+        <v>5.754831815322765</v>
       </c>
       <c r="E10">
-        <v>12.44481852510663</v>
+        <v>11.78295025081666</v>
       </c>
       <c r="F10">
-        <v>17.52841630544978</v>
+        <v>17.16155167554378</v>
       </c>
       <c r="G10">
-        <v>21.08873485167786</v>
+        <v>20.956392746886</v>
       </c>
       <c r="H10">
-        <v>1.802676667967569</v>
+        <v>1.68191633464245</v>
       </c>
       <c r="I10">
-        <v>3.371657755379742</v>
+        <v>3.188088266291855</v>
       </c>
       <c r="J10">
-        <v>7.891594532801337</v>
+        <v>8.143880571704388</v>
       </c>
       <c r="K10">
-        <v>15.52531534756303</v>
+        <v>14.68996284631573</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.5328771709877</v>
       </c>
       <c r="M10">
-        <v>15.94040504060662</v>
+        <v>10.13768807890863</v>
       </c>
       <c r="N10">
-        <v>8.044201012795495</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.98498982830002</v>
       </c>
       <c r="P10">
-        <v>12.25109785655622</v>
+        <v>8.284844153921478</v>
       </c>
       <c r="Q10">
-        <v>12.99923175798485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.17304260742753</v>
+      </c>
+      <c r="S10">
+        <v>12.72517087033513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.27161353951131</v>
+        <v>13.60873473030415</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.948810360570096</v>
+        <v>6.060375382047971</v>
       </c>
       <c r="E11">
-        <v>11.90740684262167</v>
+        <v>11.36809201585261</v>
       </c>
       <c r="F11">
-        <v>17.26618539678704</v>
+        <v>16.78881656318138</v>
       </c>
       <c r="G11">
-        <v>20.45277690455416</v>
+        <v>21.45480070408536</v>
       </c>
       <c r="H11">
-        <v>2.821287860947757</v>
+        <v>2.74714622464165</v>
       </c>
       <c r="I11">
-        <v>3.366687932023853</v>
+        <v>3.191952351862723</v>
       </c>
       <c r="J11">
-        <v>7.716167016893823</v>
+        <v>7.613319843549723</v>
       </c>
       <c r="K11">
-        <v>14.90595946485748</v>
+        <v>14.15393555003717</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.13201641473337</v>
       </c>
       <c r="M11">
-        <v>16.63301323414021</v>
+        <v>9.75081368034545</v>
       </c>
       <c r="N11">
-        <v>7.125365952761811</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.59639502470845</v>
       </c>
       <c r="P11">
-        <v>12.25140697431927</v>
+        <v>7.330976938516367</v>
       </c>
       <c r="Q11">
-        <v>12.64117200800033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.20647244198399</v>
+      </c>
+      <c r="S11">
+        <v>12.28688993481339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.70088225131372</v>
+        <v>13.13171912780547</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.107714309823584</v>
+        <v>6.227608313705132</v>
       </c>
       <c r="E12">
-        <v>11.839123772209</v>
+        <v>11.37220727048678</v>
       </c>
       <c r="F12">
-        <v>16.90239412070155</v>
+        <v>16.39697680252444</v>
       </c>
       <c r="G12">
-        <v>19.73866882445037</v>
+        <v>21.30442522419723</v>
       </c>
       <c r="H12">
-        <v>4.199102928757773</v>
+        <v>4.14859370887586</v>
       </c>
       <c r="I12">
-        <v>3.37524072176424</v>
+        <v>3.200086952301944</v>
       </c>
       <c r="J12">
-        <v>7.568024155000062</v>
+        <v>7.348529329753354</v>
       </c>
       <c r="K12">
-        <v>14.50576649577182</v>
+        <v>13.83207496436579</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.92173257743334</v>
       </c>
       <c r="M12">
-        <v>16.9952118398443</v>
+        <v>9.482427129848627</v>
       </c>
       <c r="N12">
-        <v>6.260161549539236</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.90263031516626</v>
       </c>
       <c r="P12">
-        <v>12.30736796699111</v>
+        <v>6.443262212791656</v>
       </c>
       <c r="Q12">
-        <v>12.29931082531363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.27817944704775</v>
+      </c>
+      <c r="S12">
+        <v>11.92859023073768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.97676971745818</v>
+        <v>12.50530755521751</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.191260404128099</v>
+        <v>6.29887548566192</v>
       </c>
       <c r="E13">
-        <v>12.10315406158278</v>
+        <v>11.68206636693422</v>
       </c>
       <c r="F13">
-        <v>16.40876162508592</v>
+        <v>15.96833911291996</v>
       </c>
       <c r="G13">
-        <v>18.86642882467462</v>
+        <v>20.38298856462949</v>
       </c>
       <c r="H13">
-        <v>5.617050427480096</v>
+        <v>5.577013083194269</v>
       </c>
       <c r="I13">
-        <v>3.408820879286952</v>
+        <v>3.22834720316153</v>
       </c>
       <c r="J13">
-        <v>7.425208650797316</v>
+        <v>7.295613874546983</v>
       </c>
       <c r="K13">
-        <v>14.22988679138257</v>
+        <v>13.6327998232195</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.80569640618753</v>
       </c>
       <c r="M13">
-        <v>17.14778308645022</v>
+        <v>9.288153058749959</v>
       </c>
       <c r="N13">
-        <v>5.380403330121481</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.02586917331457</v>
       </c>
       <c r="P13">
-        <v>12.40565645225439</v>
+        <v>5.553273051475283</v>
       </c>
       <c r="Q13">
-        <v>11.9297732346346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.37460396140157</v>
+      </c>
+      <c r="S13">
+        <v>11.61379696399934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.38280013941539</v>
+        <v>11.98267466349494</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.217325559701179</v>
+        <v>6.306885022229106</v>
       </c>
       <c r="E14">
-        <v>12.47622045198655</v>
+        <v>12.07602306526505</v>
       </c>
       <c r="F14">
-        <v>15.99628256659446</v>
+        <v>15.64272221362268</v>
       </c>
       <c r="G14">
-        <v>18.16907337275548</v>
+        <v>19.38073418856288</v>
       </c>
       <c r="H14">
-        <v>6.621696740811108</v>
+        <v>6.58573993375229</v>
       </c>
       <c r="I14">
-        <v>3.446073723830111</v>
+        <v>3.260263860609443</v>
       </c>
       <c r="J14">
-        <v>7.326838694477879</v>
+        <v>7.341924378368129</v>
       </c>
       <c r="K14">
-        <v>14.10118517858439</v>
+        <v>13.55027383133257</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.76053064895418</v>
       </c>
       <c r="M14">
-        <v>17.1644049181334</v>
+        <v>9.194906120698306</v>
       </c>
       <c r="N14">
-        <v>4.806223228334066</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.03328391649125</v>
       </c>
       <c r="P14">
-        <v>12.49474759742741</v>
+        <v>4.934935851320112</v>
       </c>
       <c r="Q14">
-        <v>11.65508920866024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.45281438305304</v>
+      </c>
+      <c r="S14">
+        <v>11.4078595433481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.19344954208292</v>
+        <v>11.81204802607794</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.208410217547648</v>
+        <v>6.289491067554552</v>
       </c>
       <c r="E15">
-        <v>12.5851161908534</v>
+        <v>12.19028254019415</v>
       </c>
       <c r="F15">
-        <v>15.86400195433383</v>
+        <v>15.54931168873564</v>
       </c>
       <c r="G15">
-        <v>17.9576448790655</v>
+        <v>18.97916632082493</v>
       </c>
       <c r="H15">
-        <v>6.855189916110015</v>
+        <v>6.819569800485785</v>
       </c>
       <c r="I15">
-        <v>3.465106045061032</v>
+        <v>3.277638045164444</v>
       </c>
       <c r="J15">
-        <v>7.303384987389398</v>
+        <v>7.389760234734796</v>
       </c>
       <c r="K15">
-        <v>14.08724833615455</v>
+        <v>13.54650686821421</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.75790585284256</v>
       </c>
       <c r="M15">
-        <v>17.12692913836188</v>
+        <v>9.185080756696285</v>
       </c>
       <c r="N15">
-        <v>4.675893523479574</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.99846103146462</v>
       </c>
       <c r="P15">
-        <v>12.52344772376088</v>
+        <v>4.784935083987664</v>
       </c>
       <c r="Q15">
-        <v>11.58017153056412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.47538560309046</v>
+      </c>
+      <c r="S15">
+        <v>11.36259442539198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.88843535617899</v>
+        <v>11.51406423535001</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.048223435733475</v>
+        <v>6.0959665624466</v>
       </c>
       <c r="E16">
-        <v>12.46069224365893</v>
+        <v>12.07861290673338</v>
       </c>
       <c r="F16">
-        <v>15.6253149276606</v>
+        <v>15.45422577326781</v>
       </c>
       <c r="G16">
-        <v>17.67705653332936</v>
+        <v>17.74080867634571</v>
       </c>
       <c r="H16">
-        <v>6.650691117839841</v>
+        <v>6.609499613518858</v>
       </c>
       <c r="I16">
-        <v>3.53196489516285</v>
+        <v>3.334672942292226</v>
       </c>
       <c r="J16">
-        <v>7.325537138494706</v>
+        <v>7.725083458787315</v>
       </c>
       <c r="K16">
-        <v>14.23187942304613</v>
+        <v>13.68908559599463</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.8329222275563</v>
       </c>
       <c r="M16">
-        <v>16.68421343513681</v>
+        <v>9.295912094366207</v>
       </c>
       <c r="N16">
-        <v>4.598667422590339</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.59738806464847</v>
       </c>
       <c r="P16">
-        <v>12.5644787467975</v>
+        <v>4.766644296182319</v>
       </c>
       <c r="Q16">
-        <v>11.54978424843494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.48999432451031</v>
+      </c>
+      <c r="S16">
+        <v>11.43669101188106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.98069228662708</v>
+        <v>11.57375632303041</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.90848813179203</v>
+        <v>5.944715280405136</v>
       </c>
       <c r="E17">
-        <v>12.13362926418776</v>
+        <v>11.7434510217634</v>
       </c>
       <c r="F17">
-        <v>15.66973351602477</v>
+        <v>15.5436154123524</v>
       </c>
       <c r="G17">
-        <v>17.84790465948967</v>
+        <v>17.4726944945516</v>
       </c>
       <c r="H17">
-        <v>5.92796242687942</v>
+        <v>5.879114708761817</v>
       </c>
       <c r="I17">
-        <v>3.564156953621544</v>
+        <v>3.36244410196704</v>
       </c>
       <c r="J17">
-        <v>7.395518023046469</v>
+        <v>7.927539816925427</v>
       </c>
       <c r="K17">
-        <v>14.40462429273949</v>
+        <v>13.84148668581029</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.92823568965959</v>
       </c>
       <c r="M17">
-        <v>16.328959048702</v>
+        <v>9.418302805861135</v>
       </c>
       <c r="N17">
-        <v>4.886947578732786</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.27192773788192</v>
       </c>
       <c r="P17">
-        <v>12.55006546215164</v>
+        <v>5.083707245117749</v>
       </c>
       <c r="Q17">
-        <v>11.67581815758286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.46524062193424</v>
+      </c>
+      <c r="S17">
+        <v>11.59340714793017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.45255022581935</v>
+        <v>11.97293656326489</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.770591711248629</v>
+        <v>5.807351738597405</v>
       </c>
       <c r="E18">
-        <v>11.76943471796944</v>
+        <v>11.34213691365322</v>
       </c>
       <c r="F18">
-        <v>15.96816083507773</v>
+        <v>15.83291647594388</v>
       </c>
       <c r="G18">
-        <v>18.43738025714256</v>
+        <v>17.83649638906491</v>
       </c>
       <c r="H18">
-        <v>4.706367195363118</v>
+        <v>4.644395842569844</v>
       </c>
       <c r="I18">
-        <v>3.558360608760819</v>
+        <v>3.354709604880564</v>
       </c>
       <c r="J18">
-        <v>7.515618985796785</v>
+        <v>8.090903969252414</v>
       </c>
       <c r="K18">
-        <v>14.65948607980941</v>
+        <v>14.05313963341775</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.08080902850349</v>
       </c>
       <c r="M18">
-        <v>16.00663935705782</v>
+        <v>9.582765480036493</v>
       </c>
       <c r="N18">
-        <v>5.542081865710646</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.98247419870766</v>
       </c>
       <c r="P18">
-        <v>12.49273624014574</v>
+        <v>5.748147146743479</v>
       </c>
       <c r="Q18">
-        <v>11.95370964232338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.40509739291022</v>
+      </c>
+      <c r="S18">
+        <v>11.86192779994115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.1353113536228</v>
+        <v>12.55781501447361</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.651245682967213</v>
+        <v>5.695323189634086</v>
       </c>
       <c r="E19">
-        <v>11.69990672136596</v>
+        <v>11.19838901889135</v>
       </c>
       <c r="F19">
-        <v>16.41817458118001</v>
+        <v>16.24352201405514</v>
       </c>
       <c r="G19">
-        <v>19.26602938173799</v>
+        <v>18.55066828124149</v>
       </c>
       <c r="H19">
-        <v>3.282215123099687</v>
+        <v>3.196843361110533</v>
       </c>
       <c r="I19">
-        <v>3.536550080152075</v>
+        <v>3.337053052768606</v>
       </c>
       <c r="J19">
-        <v>7.659391858243239</v>
+        <v>8.229635172061926</v>
       </c>
       <c r="K19">
-        <v>14.98960146843179</v>
+        <v>14.31703086465012</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.2818161966698</v>
       </c>
       <c r="M19">
-        <v>15.75857015902096</v>
+        <v>9.784988769365576</v>
       </c>
       <c r="N19">
-        <v>6.453014569492178</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.77015858718807</v>
       </c>
       <c r="P19">
-        <v>12.42279478602019</v>
+        <v>6.672464527913919</v>
       </c>
       <c r="Q19">
-        <v>12.31247933667524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.33423639221226</v>
+      </c>
+      <c r="S19">
+        <v>12.1887278831379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.43932628041678</v>
+        <v>13.69679355181196</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.584366091646716</v>
+        <v>5.652771347882714</v>
       </c>
       <c r="E20">
-        <v>12.37500260071051</v>
+        <v>11.7183670532424</v>
       </c>
       <c r="F20">
-        <v>17.30211442711706</v>
+        <v>17.00936329230148</v>
       </c>
       <c r="G20">
-        <v>20.77707415944537</v>
+        <v>20.21900789180644</v>
       </c>
       <c r="H20">
-        <v>1.860922557134319</v>
+        <v>1.734258650619209</v>
       </c>
       <c r="I20">
-        <v>3.440304385503828</v>
+        <v>3.255015019092319</v>
       </c>
       <c r="J20">
-        <v>7.876696884249851</v>
+        <v>8.306213797758831</v>
       </c>
       <c r="K20">
-        <v>15.53143193821285</v>
+        <v>14.72089596921277</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.5763305690716</v>
       </c>
       <c r="M20">
-        <v>15.70372217891905</v>
+        <v>10.12473580423065</v>
       </c>
       <c r="N20">
-        <v>7.957335405649046</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.76067590473052</v>
       </c>
       <c r="P20">
-        <v>12.29953522055474</v>
+        <v>8.200940798477328</v>
       </c>
       <c r="Q20">
-        <v>12.91216001882887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.21234961936895</v>
+      </c>
+      <c r="S20">
+        <v>12.69517017557559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.28405923731822</v>
+        <v>14.48356604826244</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.831161101701851</v>
+        <v>5.968042834488514</v>
       </c>
       <c r="E21">
-        <v>12.62419661455163</v>
+        <v>11.95474570173685</v>
       </c>
       <c r="F21">
-        <v>17.95695164818811</v>
+        <v>17.34848105243429</v>
       </c>
       <c r="G21">
-        <v>21.67625766733428</v>
+        <v>23.02201301816199</v>
       </c>
       <c r="H21">
-        <v>1.650115299687957</v>
+        <v>1.579686784925505</v>
       </c>
       <c r="I21">
-        <v>3.308895516748593</v>
+        <v>3.145498475238115</v>
       </c>
       <c r="J21">
-        <v>7.919917988788337</v>
+        <v>7.596220163281478</v>
       </c>
       <c r="K21">
-        <v>15.47011778284826</v>
+        <v>14.56716029683655</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.4073032012821</v>
       </c>
       <c r="M21">
-        <v>16.42442253578932</v>
+        <v>10.11601347550495</v>
       </c>
       <c r="N21">
-        <v>8.442137109471114</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.41271566571288</v>
       </c>
       <c r="P21">
-        <v>12.16024739497695</v>
+        <v>8.667090365101309</v>
       </c>
       <c r="Q21">
-        <v>13.16489500483278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.10770465710785</v>
+      </c>
+      <c r="S21">
+        <v>12.70259257118178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.7938499003913</v>
+        <v>14.96279048748367</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.99069369349746</v>
+        <v>6.173647042123684</v>
       </c>
       <c r="E22">
-        <v>12.74797863314813</v>
+        <v>12.08125734061125</v>
       </c>
       <c r="F22">
-        <v>18.36475269367354</v>
+        <v>17.53980448842009</v>
       </c>
       <c r="G22">
-        <v>22.22713983991334</v>
+        <v>24.90079811871922</v>
       </c>
       <c r="H22">
-        <v>1.590866105163298</v>
+        <v>1.686311266789321</v>
       </c>
       <c r="I22">
-        <v>3.217359835963237</v>
+        <v>3.065522765559922</v>
       </c>
       <c r="J22">
-        <v>7.945985906644566</v>
+        <v>7.161491784875682</v>
       </c>
       <c r="K22">
-        <v>15.42084822537544</v>
+        <v>14.45678481848695</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.29368374850029</v>
       </c>
       <c r="M22">
-        <v>16.8810811760017</v>
+        <v>10.11090811553971</v>
       </c>
       <c r="N22">
-        <v>8.676528084425872</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.81848970978041</v>
       </c>
       <c r="P22">
-        <v>12.07231701018343</v>
+        <v>8.887215635836492</v>
       </c>
       <c r="Q22">
-        <v>13.32104014435849</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.04498492271828</v>
+      </c>
+      <c r="S22">
+        <v>12.6865707359022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.55393744123939</v>
+        <v>14.73590182957495</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.90347594578565</v>
+        <v>6.055694429322232</v>
       </c>
       <c r="E23">
-        <v>12.6952124160628</v>
+        <v>12.0216195121355</v>
       </c>
       <c r="F23">
-        <v>18.16053664647055</v>
+        <v>17.4805179437945</v>
       </c>
       <c r="G23">
-        <v>21.95718588213005</v>
+        <v>23.71059109476874</v>
       </c>
       <c r="H23">
-        <v>1.592634115074044</v>
+        <v>1.631016941716069</v>
       </c>
       <c r="I23">
-        <v>3.255113742383545</v>
+        <v>3.094679622703044</v>
       </c>
       <c r="J23">
-        <v>7.936055860071908</v>
+        <v>7.457891379878065</v>
       </c>
       <c r="K23">
-        <v>15.46561525789176</v>
+        <v>14.5369210080683</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.36771113195942</v>
       </c>
       <c r="M23">
-        <v>16.62856617778104</v>
+        <v>10.13155467467041</v>
       </c>
       <c r="N23">
-        <v>8.544719084724404</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.6048514639173</v>
       </c>
       <c r="P23">
-        <v>12.11754507380471</v>
+        <v>8.766865350982467</v>
       </c>
       <c r="Q23">
-        <v>13.24782924155073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.07415996884097</v>
+      </c>
+      <c r="S23">
+        <v>12.72833877553156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.55318550235897</v>
+        <v>13.79875590203011</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.5652298642463</v>
+        <v>5.634095162731565</v>
       </c>
       <c r="E24">
-        <v>12.46938758221674</v>
+        <v>11.79797991136452</v>
       </c>
       <c r="F24">
-        <v>17.36518039804582</v>
+        <v>17.06920602484752</v>
       </c>
       <c r="G24">
-        <v>20.89532113294429</v>
+        <v>20.31190187413068</v>
       </c>
       <c r="H24">
-        <v>1.839110649321567</v>
+        <v>1.712170185173888</v>
       </c>
       <c r="I24">
-        <v>3.420583509235222</v>
+        <v>3.232307459499249</v>
       </c>
       <c r="J24">
-        <v>7.898654945448129</v>
+        <v>8.331531336155317</v>
       </c>
       <c r="K24">
-        <v>15.60965865034996</v>
+        <v>14.78598257385681</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.62586032442846</v>
       </c>
       <c r="M24">
-        <v>15.65415862742757</v>
+        <v>10.17460749200476</v>
       </c>
       <c r="N24">
-        <v>8.040917462067924</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.71558147936812</v>
       </c>
       <c r="P24">
-        <v>12.29480413240582</v>
+        <v>8.287402262618237</v>
       </c>
       <c r="Q24">
-        <v>12.96538814236844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.20546006925387</v>
+      </c>
+      <c r="S24">
+        <v>12.74549184389999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.38118675420706</v>
+        <v>12.72006693995777</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.174903529461274</v>
+        <v>5.22252907878246</v>
       </c>
       <c r="E25">
-        <v>12.21548505029674</v>
+        <v>11.58383419530944</v>
       </c>
       <c r="F25">
-        <v>16.51041084511154</v>
+        <v>16.29722420125802</v>
       </c>
       <c r="G25">
-        <v>19.75292198769017</v>
+        <v>18.98780979193104</v>
       </c>
       <c r="H25">
-        <v>2.117839687218973</v>
+        <v>1.971892288428122</v>
       </c>
       <c r="I25">
-        <v>3.6099675960069</v>
+        <v>3.395494591361378</v>
       </c>
       <c r="J25">
-        <v>7.873067396538317</v>
+        <v>8.379012075971469</v>
       </c>
       <c r="K25">
-        <v>15.77586636796993</v>
+        <v>15.0006213998342</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.88235726802543</v>
       </c>
       <c r="M25">
-        <v>14.53039859340701</v>
+        <v>10.21398884794572</v>
       </c>
       <c r="N25">
-        <v>7.46339417574839</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.55176364353144</v>
       </c>
       <c r="P25">
-        <v>12.4929553673526</v>
+        <v>7.698555578434971</v>
       </c>
       <c r="Q25">
-        <v>12.68662136585694</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.37464874545743</v>
+      </c>
+      <c r="S25">
+        <v>12.52930616783697</v>
       </c>
     </row>
   </sheetData>
